--- a/pycaret_results_meeting.xlsx
+++ b/pycaret_results_meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcra\Dropbox\DJANGO\DJANGO-GENERIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53EDEE-CBD4-48DD-933F-E12F90FF0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B896213F-5C23-4E50-9A3E-75339DF41D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2327,9 +2327,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2685,19 +2686,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E599"/>
+  <dimension ref="A1:E603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2714,10 +2718,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -2731,10 +2735,10 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -2748,10 +2752,10 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -2765,10 +2769,10 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -2782,10 +2786,10 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -2799,10 +2803,10 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" t="s">
@@ -2816,10 +2820,10 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -2833,10 +2837,10 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -2850,10 +2854,10 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -2867,10 +2871,10 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" t="s">
@@ -2884,10 +2888,10 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" t="s">
@@ -2901,10 +2905,10 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" t="s">
@@ -2918,10 +2922,10 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" t="s">
@@ -2935,10 +2939,10 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" t="s">
@@ -2952,10 +2956,10 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" t="s">
@@ -2969,10 +2973,10 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" t="s">
@@ -2986,10 +2990,10 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -3003,10 +3007,10 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" t="s">
@@ -3020,10 +3024,10 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" t="s">
@@ -3037,10 +3041,10 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" t="s">
@@ -3054,10 +3058,10 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" t="s">
@@ -3071,10 +3075,10 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" t="s">
@@ -3088,10 +3092,10 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" t="s">
@@ -3105,10 +3109,10 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" t="s">
@@ -3122,10 +3126,10 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" t="s">
@@ -3139,10 +3143,10 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" t="s">
@@ -3156,10 +3160,10 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" t="s">
@@ -3173,10 +3177,10 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" t="s">
@@ -3190,10 +3194,10 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" t="s">
@@ -3207,10 +3211,10 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" t="s">
@@ -3224,10 +3228,10 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" t="s">
@@ -3241,10 +3245,10 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" t="s">
@@ -3258,10 +3262,10 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" t="s">
@@ -3275,10 +3279,10 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" t="s">
@@ -3292,10 +3296,10 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" t="s">
@@ -3309,10 +3313,10 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" t="s">
@@ -3326,10 +3330,10 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" t="s">
@@ -3343,10 +3347,10 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" t="s">
@@ -3360,10 +3364,10 @@
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" t="s">
@@ -3377,10 +3381,10 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" t="s">
@@ -3394,10 +3398,10 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" t="s">
@@ -3411,10 +3415,10 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" t="s">
@@ -3428,10 +3432,10 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" t="s">
@@ -3445,10 +3449,10 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" t="s">
@@ -3462,10 +3466,10 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" t="s">
@@ -3479,10 +3483,10 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" t="s">
@@ -3496,10 +3500,10 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" t="s">
@@ -3513,10 +3517,10 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" t="s">
@@ -3530,10 +3534,10 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" t="s">
@@ -3547,10 +3551,10 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" t="s">
@@ -3564,10 +3568,10 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" t="s">
@@ -3581,10 +3585,10 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" t="s">
@@ -3598,10 +3602,10 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" t="s">
@@ -3615,10 +3619,10 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" t="s">
@@ -3632,10 +3636,10 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" t="s">
@@ -3649,10 +3653,10 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" t="s">
@@ -3666,10 +3670,10 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58" t="s">
@@ -3683,10 +3687,10 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59" t="s">
@@ -3700,10 +3704,10 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" t="s">
@@ -3717,10 +3721,10 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
         <v>1</v>
       </c>
       <c r="D61" t="s">
@@ -3734,10 +3738,10 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" t="s">
@@ -3751,10 +3755,10 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" t="s">
@@ -3768,10 +3772,10 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" t="s">
@@ -3785,10 +3789,10 @@
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" t="s">
@@ -3802,10 +3806,10 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" t="s">
@@ -3819,10 +3823,10 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" t="s">
@@ -3836,10 +3840,10 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" t="s">
@@ -3853,10 +3857,10 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
         <v>1</v>
       </c>
       <c r="D69" t="s">
@@ -3870,10 +3874,10 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="D70" t="s">
@@ -3887,10 +3891,10 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
         <v>1</v>
       </c>
       <c r="D71" t="s">
@@ -3904,10 +3908,10 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" t="s">
@@ -3921,10 +3925,10 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" t="s">
@@ -3938,10 +3942,10 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" t="s">
@@ -3955,10 +3959,10 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
         <v>1</v>
       </c>
       <c r="D75" t="s">
@@ -3972,10 +3976,10 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
         <v>1</v>
       </c>
       <c r="D76" t="s">
@@ -3989,10 +3993,10 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="D77" t="s">
@@ -4006,10 +4010,10 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
         <v>1</v>
       </c>
       <c r="D78" t="s">
@@ -4023,10 +4027,10 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
         <v>1</v>
       </c>
       <c r="D79" t="s">
@@ -4040,10 +4044,10 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
         <v>1</v>
       </c>
       <c r="D80" t="s">
@@ -4057,10 +4061,10 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
         <v>1</v>
       </c>
       <c r="D81" t="s">
@@ -4074,10 +4078,10 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
         <v>1</v>
       </c>
       <c r="D82" t="s">
@@ -4091,10 +4095,10 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
         <v>1</v>
       </c>
       <c r="D83" t="s">
@@ -4108,10 +4112,10 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
         <v>1</v>
       </c>
       <c r="D84" t="s">
@@ -4125,10 +4129,10 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
         <v>1</v>
       </c>
       <c r="D85" t="s">
@@ -4142,10 +4146,10 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
         <v>1</v>
       </c>
       <c r="D86" t="s">
@@ -4159,10 +4163,10 @@
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
         <v>1</v>
       </c>
       <c r="D87" t="s">
@@ -4176,10 +4180,10 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
         <v>1</v>
       </c>
       <c r="D88" t="s">
@@ -4193,10 +4197,10 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
         <v>1</v>
       </c>
       <c r="D89" t="s">
@@ -4210,10 +4214,10 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
         <v>1</v>
       </c>
       <c r="D90" t="s">
@@ -4227,10 +4231,10 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
         <v>1</v>
       </c>
       <c r="D91" t="s">
@@ -4244,10 +4248,10 @@
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
         <v>1</v>
       </c>
       <c r="D92" t="s">
@@ -4261,10 +4265,10 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
         <v>1</v>
       </c>
       <c r="D93" t="s">
@@ -4278,10 +4282,10 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
         <v>1</v>
       </c>
       <c r="D94" t="s">
@@ -4295,10 +4299,10 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
         <v>1</v>
       </c>
       <c r="D95" t="s">
@@ -4312,10 +4316,10 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
         <v>1</v>
       </c>
       <c r="D96" t="s">
@@ -4329,10 +4333,10 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
         <v>1</v>
       </c>
       <c r="D97" t="s">
@@ -4346,10 +4350,10 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
         <v>1</v>
       </c>
       <c r="D98" t="s">
@@ -4363,10 +4367,10 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99">
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
         <v>1</v>
       </c>
       <c r="D99" t="s">
@@ -4380,10 +4384,10 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
         <v>1</v>
       </c>
       <c r="D100" t="s">
@@ -4397,10 +4401,10 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
         <v>1</v>
       </c>
       <c r="D101" t="s">
@@ -4414,10 +4418,10 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
         <v>1</v>
       </c>
       <c r="D102" t="s">
@@ -4431,10 +4435,10 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
         <v>1</v>
       </c>
       <c r="D103" t="s">
@@ -4448,10 +4452,10 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
         <v>1</v>
       </c>
       <c r="D104" t="s">
@@ -4465,10 +4469,10 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
         <v>1</v>
       </c>
       <c r="D105" t="s">
@@ -4482,10 +4486,10 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
         <v>1</v>
       </c>
       <c r="D106" t="s">
@@ -4499,10 +4503,10 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
         <v>1</v>
       </c>
       <c r="D107" t="s">
@@ -4516,10 +4520,10 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
         <v>1</v>
       </c>
       <c r="D108" t="s">
@@ -4533,10 +4537,10 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109">
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
         <v>1</v>
       </c>
       <c r="D109" t="s">
@@ -4550,10 +4554,10 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" t="s">
@@ -4567,10 +4571,10 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
         <v>1</v>
       </c>
       <c r="D111" t="s">
@@ -4584,10 +4588,10 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112" t="s">
@@ -4601,10 +4605,10 @@
       <c r="A113" t="s">
         <v>117</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113">
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
         <v>1</v>
       </c>
       <c r="D113" t="s">
@@ -4618,10 +4622,10 @@
       <c r="A114" t="s">
         <v>118</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
         <v>1</v>
       </c>
       <c r="D114" t="s">
@@ -4635,10 +4639,10 @@
       <c r="A115" t="s">
         <v>119</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
         <v>1</v>
       </c>
       <c r="D115" t="s">
@@ -4652,10 +4656,10 @@
       <c r="A116" t="s">
         <v>120</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116">
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
         <v>1</v>
       </c>
       <c r="D116" t="s">
@@ -4669,10 +4673,10 @@
       <c r="A117" t="s">
         <v>121</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
         <v>1</v>
       </c>
       <c r="D117" t="s">
@@ -4686,10 +4690,10 @@
       <c r="A118" t="s">
         <v>122</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -4703,10 +4707,10 @@
       <c r="A119" t="s">
         <v>123</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119">
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
         <v>1</v>
       </c>
       <c r="D119" t="s">
@@ -4720,10 +4724,10 @@
       <c r="A120" t="s">
         <v>124</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
         <v>1</v>
       </c>
       <c r="D120" t="s">
@@ -4737,10 +4741,10 @@
       <c r="A121" t="s">
         <v>125</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
         <v>1</v>
       </c>
       <c r="D121" t="s">
@@ -4754,10 +4758,10 @@
       <c r="A122" t="s">
         <v>126</v>
       </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
         <v>1</v>
       </c>
       <c r="D122" t="s">
@@ -4771,10 +4775,10 @@
       <c r="A123" t="s">
         <v>127</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
         <v>1</v>
       </c>
       <c r="D123" t="s">
@@ -4788,10 +4792,10 @@
       <c r="A124" t="s">
         <v>128</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
         <v>1</v>
       </c>
       <c r="D124" t="s">
@@ -4805,10 +4809,10 @@
       <c r="A125" t="s">
         <v>129</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2">
         <v>1</v>
       </c>
       <c r="D125" t="s">
@@ -4822,10 +4826,10 @@
       <c r="A126" t="s">
         <v>130</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2">
         <v>1</v>
       </c>
       <c r="D126" t="s">
@@ -4839,10 +4843,10 @@
       <c r="A127" t="s">
         <v>131</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2">
         <v>1</v>
       </c>
       <c r="D127" t="s">
@@ -4856,10 +4860,10 @@
       <c r="A128" t="s">
         <v>132</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
         <v>1</v>
       </c>
       <c r="D128" t="s">
@@ -4873,10 +4877,10 @@
       <c r="A129" t="s">
         <v>133</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2">
         <v>1</v>
       </c>
       <c r="D129" t="s">
@@ -4890,10 +4894,10 @@
       <c r="A130" t="s">
         <v>134</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2">
         <v>1</v>
       </c>
       <c r="D130" t="s">
@@ -4907,10 +4911,10 @@
       <c r="A131" t="s">
         <v>135</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
         <v>1</v>
       </c>
       <c r="D131" t="s">
@@ -4924,10 +4928,10 @@
       <c r="A132" t="s">
         <v>136</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2">
         <v>1</v>
       </c>
       <c r="D132" t="s">
@@ -4941,10 +4945,10 @@
       <c r="A133" t="s">
         <v>137</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
         <v>1</v>
       </c>
       <c r="D133" t="s">
@@ -4958,10 +4962,10 @@
       <c r="A134" t="s">
         <v>138</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2">
         <v>1</v>
       </c>
       <c r="D134" t="s">
@@ -4975,10 +4979,10 @@
       <c r="A135" t="s">
         <v>139</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
+      <c r="B135" s="2">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2">
         <v>1</v>
       </c>
       <c r="D135" t="s">
@@ -4992,10 +4996,10 @@
       <c r="A136" t="s">
         <v>140</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
+      <c r="B136" s="2">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2">
         <v>1</v>
       </c>
       <c r="D136" t="s">
@@ -5009,10 +5013,10 @@
       <c r="A137" t="s">
         <v>141</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
+      <c r="B137" s="2">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2">
         <v>1</v>
       </c>
       <c r="D137" t="s">
@@ -5026,10 +5030,10 @@
       <c r="A138" t="s">
         <v>142</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2">
         <v>1</v>
       </c>
       <c r="D138" t="s">
@@ -5043,10 +5047,10 @@
       <c r="A139" t="s">
         <v>143</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2">
         <v>1</v>
       </c>
       <c r="D139" t="s">
@@ -5060,10 +5064,10 @@
       <c r="A140" t="s">
         <v>144</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2">
         <v>1</v>
       </c>
       <c r="D140" t="s">
@@ -5077,10 +5081,10 @@
       <c r="A141" t="s">
         <v>145</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2">
         <v>1</v>
       </c>
       <c r="D141" t="s">
@@ -5094,10 +5098,10 @@
       <c r="A142" t="s">
         <v>146</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2">
         <v>1</v>
       </c>
       <c r="D142" t="s">
@@ -5111,10 +5115,10 @@
       <c r="A143" t="s">
         <v>148</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2">
         <v>1</v>
       </c>
       <c r="D143" t="s">
@@ -5128,10 +5132,10 @@
       <c r="A144" t="s">
         <v>150</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
         <v>1</v>
       </c>
       <c r="D144" t="s">
@@ -5145,10 +5149,10 @@
       <c r="A145" t="s">
         <v>151</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
+      <c r="B145" s="2">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2">
         <v>1</v>
       </c>
       <c r="D145" t="s">
@@ -5162,10 +5166,10 @@
       <c r="A146" t="s">
         <v>152</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
         <v>1</v>
       </c>
       <c r="D146" t="s">
@@ -5179,10 +5183,10 @@
       <c r="A147" t="s">
         <v>153</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
         <v>1</v>
       </c>
       <c r="D147" t="s">
@@ -5196,10 +5200,10 @@
       <c r="A148" t="s">
         <v>154</v>
       </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
+      <c r="B148" s="2">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
         <v>1</v>
       </c>
       <c r="D148" t="s">
@@ -5213,10 +5217,10 @@
       <c r="A149" t="s">
         <v>155</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149">
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2">
         <v>1</v>
       </c>
       <c r="D149" t="s">
@@ -5230,10 +5234,10 @@
       <c r="A150" t="s">
         <v>156</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
         <v>1</v>
       </c>
       <c r="D150" t="s">
@@ -5247,10 +5251,10 @@
       <c r="A151" t="s">
         <v>157</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
         <v>1</v>
       </c>
       <c r="D151" t="s">
@@ -5264,10 +5268,10 @@
       <c r="A152" t="s">
         <v>158</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
         <v>1</v>
       </c>
       <c r="D152" t="s">
@@ -5281,10 +5285,10 @@
       <c r="A153" t="s">
         <v>159</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
         <v>1</v>
       </c>
       <c r="D153" t="s">
@@ -5298,10 +5302,10 @@
       <c r="A154" t="s">
         <v>161</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
         <v>1</v>
       </c>
       <c r="D154" t="s">
@@ -5315,10 +5319,10 @@
       <c r="A155" t="s">
         <v>162</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2">
         <v>1</v>
       </c>
       <c r="D155" t="s">
@@ -5332,10 +5336,10 @@
       <c r="A156" t="s">
         <v>163</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2">
         <v>1</v>
       </c>
       <c r="D156" t="s">
@@ -5349,10 +5353,10 @@
       <c r="A157" t="s">
         <v>164</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2">
         <v>1</v>
       </c>
       <c r="D157" t="s">
@@ -5366,10 +5370,10 @@
       <c r="A158" t="s">
         <v>165</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
         <v>1</v>
       </c>
       <c r="D158" t="s">
@@ -5383,10 +5387,10 @@
       <c r="A159" t="s">
         <v>166</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
         <v>1</v>
       </c>
       <c r="D159" t="s">
@@ -5400,10 +5404,10 @@
       <c r="A160" t="s">
         <v>167</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
         <v>1</v>
       </c>
       <c r="D160" t="s">
@@ -5417,10 +5421,10 @@
       <c r="A161" t="s">
         <v>168</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2">
         <v>1</v>
       </c>
       <c r="D161" t="s">
@@ -5434,10 +5438,10 @@
       <c r="A162" t="s">
         <v>169</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2">
         <v>1</v>
       </c>
       <c r="D162" t="s">
@@ -5451,10 +5455,10 @@
       <c r="A163" t="s">
         <v>170</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2">
         <v>1</v>
       </c>
       <c r="D163" t="s">
@@ -5468,10 +5472,10 @@
       <c r="A164" t="s">
         <v>171</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164">
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
         <v>1</v>
       </c>
       <c r="D164" t="s">
@@ -5485,10 +5489,10 @@
       <c r="A165" t="s">
         <v>172</v>
       </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
+      <c r="B165" s="2">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2">
         <v>1</v>
       </c>
       <c r="D165" t="s">
@@ -5502,10 +5506,10 @@
       <c r="A166" t="s">
         <v>174</v>
       </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166">
+      <c r="B166" s="2">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2">
         <v>1</v>
       </c>
       <c r="D166" t="s">
@@ -5519,10 +5523,10 @@
       <c r="A167" t="s">
         <v>175</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2">
         <v>1</v>
       </c>
       <c r="D167" t="s">
@@ -5536,10 +5540,10 @@
       <c r="A168" t="s">
         <v>176</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2">
         <v>1</v>
       </c>
       <c r="D168" t="s">
@@ -5553,10 +5557,10 @@
       <c r="A169" t="s">
         <v>177</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169">
+      <c r="B169" s="2">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2">
         <v>1</v>
       </c>
       <c r="D169" t="s">
@@ -5570,10 +5574,10 @@
       <c r="A170" t="s">
         <v>178</v>
       </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170">
+      <c r="B170" s="2">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2">
         <v>1</v>
       </c>
       <c r="D170" t="s">
@@ -5587,10 +5591,10 @@
       <c r="A171" t="s">
         <v>179</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2">
         <v>1</v>
       </c>
       <c r="D171" t="s">
@@ -5604,10 +5608,10 @@
       <c r="A172" t="s">
         <v>180</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172">
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2">
         <v>1</v>
       </c>
       <c r="D172" t="s">
@@ -5621,10 +5625,10 @@
       <c r="A173" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173">
+      <c r="B173" s="2">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2">
         <v>1</v>
       </c>
       <c r="D173" t="s">
@@ -5638,10 +5642,10 @@
       <c r="A174" t="s">
         <v>182</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174">
+      <c r="B174" s="2">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2">
         <v>1</v>
       </c>
       <c r="D174" t="s">
@@ -5655,10 +5659,10 @@
       <c r="A175" t="s">
         <v>183</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-      <c r="C175">
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2">
         <v>1</v>
       </c>
       <c r="D175" t="s">
@@ -5672,10 +5676,10 @@
       <c r="A176" t="s">
         <v>184</v>
       </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2">
         <v>1</v>
       </c>
       <c r="D176" t="s">
@@ -5689,10 +5693,10 @@
       <c r="A177" t="s">
         <v>185</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177">
+      <c r="B177" s="2">
+        <v>1</v>
+      </c>
+      <c r="C177" s="2">
         <v>1</v>
       </c>
       <c r="D177" t="s">
@@ -5706,10 +5710,10 @@
       <c r="A178" t="s">
         <v>186</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178">
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2">
         <v>1</v>
       </c>
       <c r="D178" t="s">
@@ -5723,10 +5727,10 @@
       <c r="A179" t="s">
         <v>187</v>
       </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179">
+      <c r="B179" s="2">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2">
         <v>1</v>
       </c>
       <c r="D179" t="s">
@@ -5740,10 +5744,10 @@
       <c r="A180" t="s">
         <v>188</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180">
+      <c r="B180" s="2">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2">
         <v>1</v>
       </c>
       <c r="D180" t="s">
@@ -5757,10 +5761,10 @@
       <c r="A181" t="s">
         <v>189</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181">
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2">
         <v>1</v>
       </c>
       <c r="D181" t="s">
@@ -5774,10 +5778,10 @@
       <c r="A182" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182">
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2">
         <v>1</v>
       </c>
       <c r="D182" t="s">
@@ -5791,10 +5795,10 @@
       <c r="A183" t="s">
         <v>191</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
         <v>1</v>
       </c>
       <c r="D183" t="s">
@@ -5808,10 +5812,10 @@
       <c r="A184" t="s">
         <v>192</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184">
+      <c r="B184" s="2">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2">
         <v>1</v>
       </c>
       <c r="D184" t="s">
@@ -5825,10 +5829,10 @@
       <c r="A185" t="s">
         <v>193</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185">
+      <c r="B185" s="2">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2">
         <v>1</v>
       </c>
       <c r="D185" t="s">
@@ -5842,10 +5846,10 @@
       <c r="A186" t="s">
         <v>194</v>
       </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186">
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2">
         <v>1</v>
       </c>
       <c r="D186" t="s">
@@ -5859,10 +5863,10 @@
       <c r="A187" t="s">
         <v>195</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187">
+      <c r="B187" s="2">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2">
         <v>1</v>
       </c>
       <c r="D187" t="s">
@@ -5876,10 +5880,10 @@
       <c r="A188" t="s">
         <v>196</v>
       </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
+      <c r="B188" s="2">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2">
         <v>1</v>
       </c>
       <c r="D188" t="s">
@@ -5893,10 +5897,10 @@
       <c r="A189" t="s">
         <v>197</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189">
+      <c r="B189" s="2">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2">
         <v>1</v>
       </c>
       <c r="D189" t="s">
@@ -5910,10 +5914,10 @@
       <c r="A190" t="s">
         <v>198</v>
       </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190">
+      <c r="B190" s="2">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2">
         <v>1</v>
       </c>
       <c r="D190" t="s">
@@ -5927,10 +5931,10 @@
       <c r="A191" t="s">
         <v>199</v>
       </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191">
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2">
         <v>1</v>
       </c>
       <c r="D191" t="s">
@@ -5944,10 +5948,10 @@
       <c r="A192" t="s">
         <v>200</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
+      <c r="B192" s="2">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2">
         <v>1</v>
       </c>
       <c r="D192" t="s">
@@ -5961,10 +5965,10 @@
       <c r="A193" t="s">
         <v>201</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
+      <c r="B193" s="2">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2">
         <v>1</v>
       </c>
       <c r="D193" t="s">
@@ -5978,10 +5982,10 @@
       <c r="A194" t="s">
         <v>202</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194">
+      <c r="B194" s="2">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2">
         <v>1</v>
       </c>
       <c r="D194" t="s">
@@ -5995,10 +5999,10 @@
       <c r="A195" t="s">
         <v>203</v>
       </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195">
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
+      <c r="C195" s="2">
         <v>1</v>
       </c>
       <c r="D195" t="s">
@@ -6012,10 +6016,10 @@
       <c r="A196" t="s">
         <v>204</v>
       </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196">
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2">
         <v>1</v>
       </c>
       <c r="D196" t="s">
@@ -6029,10 +6033,10 @@
       <c r="A197" t="s">
         <v>205</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197">
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
+      <c r="C197" s="2">
         <v>1</v>
       </c>
       <c r="D197" t="s">
@@ -6046,10 +6050,10 @@
       <c r="A198" t="s">
         <v>206</v>
       </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198">
+      <c r="B198" s="2">
+        <v>1</v>
+      </c>
+      <c r="C198" s="2">
         <v>1</v>
       </c>
       <c r="D198" t="s">
@@ -6063,10 +6067,10 @@
       <c r="A199" t="s">
         <v>207</v>
       </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2">
         <v>1</v>
       </c>
       <c r="D199" t="s">
@@ -6080,10 +6084,10 @@
       <c r="A200" t="s">
         <v>208</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200">
+      <c r="B200" s="2">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2">
         <v>1</v>
       </c>
       <c r="D200" t="s">
@@ -6097,10 +6101,10 @@
       <c r="A201" t="s">
         <v>209</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201">
+      <c r="B201" s="2">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2">
         <v>1</v>
       </c>
       <c r="D201" t="s">
@@ -6114,10 +6118,10 @@
       <c r="A202" t="s">
         <v>210</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202">
+      <c r="B202" s="2">
+        <v>1</v>
+      </c>
+      <c r="C202" s="2">
         <v>1</v>
       </c>
       <c r="D202" t="s">
@@ -6131,10 +6135,10 @@
       <c r="A203" t="s">
         <v>211</v>
       </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203">
+      <c r="B203" s="2">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2">
         <v>1</v>
       </c>
       <c r="D203" t="s">
@@ -6148,10 +6152,10 @@
       <c r="A204" t="s">
         <v>212</v>
       </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204">
+      <c r="B204" s="2">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2">
         <v>1</v>
       </c>
       <c r="D204" t="s">
@@ -6165,10 +6169,10 @@
       <c r="A205" t="s">
         <v>213</v>
       </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205">
+      <c r="B205" s="2">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2">
         <v>1</v>
       </c>
       <c r="D205" t="s">
@@ -6182,10 +6186,10 @@
       <c r="A206" t="s">
         <v>214</v>
       </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206">
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2">
         <v>1</v>
       </c>
       <c r="D206" t="s">
@@ -6199,10 +6203,10 @@
       <c r="A207" t="s">
         <v>215</v>
       </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207">
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
         <v>1</v>
       </c>
       <c r="D207" t="s">
@@ -6216,10 +6220,10 @@
       <c r="A208" t="s">
         <v>216</v>
       </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208">
+      <c r="B208" s="2">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2">
         <v>1</v>
       </c>
       <c r="D208" t="s">
@@ -6233,10 +6237,10 @@
       <c r="A209" t="s">
         <v>217</v>
       </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209">
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2">
         <v>1</v>
       </c>
       <c r="D209" t="s">
@@ -6250,10 +6254,10 @@
       <c r="A210" t="s">
         <v>218</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210">
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2">
         <v>1</v>
       </c>
       <c r="D210" t="s">
@@ -6267,10 +6271,10 @@
       <c r="A211" t="s">
         <v>219</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211">
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2">
         <v>1</v>
       </c>
       <c r="D211" t="s">
@@ -6284,10 +6288,10 @@
       <c r="A212" t="s">
         <v>220</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212">
+      <c r="B212" s="2">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2">
         <v>1</v>
       </c>
       <c r="D212" t="s">
@@ -6301,10 +6305,10 @@
       <c r="A213" t="s">
         <v>221</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213">
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2">
         <v>1</v>
       </c>
       <c r="D213" t="s">
@@ -6318,10 +6322,10 @@
       <c r="A214" t="s">
         <v>222</v>
       </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214">
+      <c r="B214" s="2">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2">
         <v>1</v>
       </c>
       <c r="D214" t="s">
@@ -6335,10 +6339,10 @@
       <c r="A215" t="s">
         <v>223</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215">
+      <c r="B215" s="2">
+        <v>1</v>
+      </c>
+      <c r="C215" s="2">
         <v>1</v>
       </c>
       <c r="D215" t="s">
@@ -6352,10 +6356,10 @@
       <c r="A216" t="s">
         <v>224</v>
       </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216">
+      <c r="B216" s="2">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2">
         <v>1</v>
       </c>
       <c r="D216" t="s">
@@ -6369,10 +6373,10 @@
       <c r="A217" t="s">
         <v>225</v>
       </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217">
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
+      <c r="C217" s="2">
         <v>1</v>
       </c>
       <c r="D217" t="s">
@@ -6386,10 +6390,10 @@
       <c r="A218" t="s">
         <v>226</v>
       </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218">
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2">
         <v>1</v>
       </c>
       <c r="D218" t="s">
@@ -6403,10 +6407,10 @@
       <c r="A219" t="s">
         <v>227</v>
       </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219">
+      <c r="B219" s="2">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2">
         <v>1</v>
       </c>
       <c r="D219" t="s">
@@ -6420,10 +6424,10 @@
       <c r="A220" t="s">
         <v>228</v>
       </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
         <v>1</v>
       </c>
       <c r="D220" t="s">
@@ -6437,10 +6441,10 @@
       <c r="A221" t="s">
         <v>229</v>
       </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221">
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2">
         <v>1</v>
       </c>
       <c r="D221" t="s">
@@ -6454,10 +6458,10 @@
       <c r="A222" t="s">
         <v>230</v>
       </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="C222">
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2">
         <v>1</v>
       </c>
       <c r="D222" t="s">
@@ -6471,10 +6475,10 @@
       <c r="A223" t="s">
         <v>231</v>
       </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223">
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2">
         <v>1</v>
       </c>
       <c r="D223" t="s">
@@ -6488,10 +6492,10 @@
       <c r="A224" t="s">
         <v>232</v>
       </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224">
+      <c r="B224" s="2">
+        <v>1</v>
+      </c>
+      <c r="C224" s="2">
         <v>1</v>
       </c>
       <c r="D224" t="s">
@@ -6505,10 +6509,10 @@
       <c r="A225" t="s">
         <v>233</v>
       </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225">
+      <c r="B225" s="2">
+        <v>1</v>
+      </c>
+      <c r="C225" s="2">
         <v>1</v>
       </c>
       <c r="D225" t="s">
@@ -6522,10 +6526,10 @@
       <c r="A226" t="s">
         <v>234</v>
       </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226">
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2">
         <v>1</v>
       </c>
       <c r="D226" t="s">
@@ -6539,10 +6543,10 @@
       <c r="A227" t="s">
         <v>235</v>
       </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227">
+      <c r="B227" s="2">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2">
         <v>1</v>
       </c>
       <c r="D227" t="s">
@@ -6556,10 +6560,10 @@
       <c r="A228" t="s">
         <v>236</v>
       </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="C228">
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
+      <c r="C228" s="2">
         <v>1</v>
       </c>
       <c r="D228" t="s">
@@ -6573,10 +6577,10 @@
       <c r="A229" t="s">
         <v>237</v>
       </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229">
+      <c r="B229" s="2">
+        <v>1</v>
+      </c>
+      <c r="C229" s="2">
         <v>1</v>
       </c>
       <c r="D229" t="s">
@@ -6590,10 +6594,10 @@
       <c r="A230" t="s">
         <v>238</v>
       </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230">
+      <c r="B230" s="2">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2">
         <v>1</v>
       </c>
       <c r="D230" t="s">
@@ -6607,10 +6611,10 @@
       <c r="A231" t="s">
         <v>239</v>
       </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231">
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2">
         <v>1</v>
       </c>
       <c r="D231" t="s">
@@ -6624,10 +6628,10 @@
       <c r="A232" t="s">
         <v>240</v>
       </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232">
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2">
         <v>1</v>
       </c>
       <c r="D232" t="s">
@@ -6641,10 +6645,10 @@
       <c r="A233" t="s">
         <v>241</v>
       </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233">
+      <c r="B233" s="2">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2">
         <v>1</v>
       </c>
       <c r="D233" t="s">
@@ -6658,10 +6662,10 @@
       <c r="A234" t="s">
         <v>242</v>
       </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-      <c r="C234">
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2">
         <v>1</v>
       </c>
       <c r="D234" t="s">
@@ -6675,10 +6679,10 @@
       <c r="A235" t="s">
         <v>243</v>
       </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235">
+      <c r="B235" s="2">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2">
         <v>1</v>
       </c>
       <c r="D235" t="s">
@@ -6692,10 +6696,10 @@
       <c r="A236" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-      <c r="C236">
+      <c r="B236" s="2">
+        <v>1</v>
+      </c>
+      <c r="C236" s="2">
         <v>1</v>
       </c>
       <c r="D236" t="s">
@@ -6709,10 +6713,10 @@
       <c r="A237" t="s">
         <v>245</v>
       </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237">
+      <c r="B237" s="2">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2">
         <v>1</v>
       </c>
       <c r="D237" t="s">
@@ -6726,10 +6730,10 @@
       <c r="A238" t="s">
         <v>246</v>
       </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238">
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2">
         <v>1</v>
       </c>
       <c r="D238" t="s">
@@ -6743,10 +6747,10 @@
       <c r="A239" t="s">
         <v>247</v>
       </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="C239">
+      <c r="B239" s="2">
+        <v>1</v>
+      </c>
+      <c r="C239" s="2">
         <v>1</v>
       </c>
       <c r="D239" t="s">
@@ -6760,10 +6764,10 @@
       <c r="A240" t="s">
         <v>248</v>
       </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240">
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
+      <c r="C240" s="2">
         <v>1</v>
       </c>
       <c r="D240" t="s">
@@ -6777,10 +6781,10 @@
       <c r="A241" t="s">
         <v>249</v>
       </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-      <c r="C241">
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2">
         <v>1</v>
       </c>
       <c r="D241" t="s">
@@ -6794,10 +6798,10 @@
       <c r="A242" t="s">
         <v>250</v>
       </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-      <c r="C242">
+      <c r="B242" s="2">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2">
         <v>1</v>
       </c>
       <c r="D242" t="s">
@@ -6811,10 +6815,10 @@
       <c r="A243" t="s">
         <v>251</v>
       </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-      <c r="C243">
+      <c r="B243" s="2">
+        <v>1</v>
+      </c>
+      <c r="C243" s="2">
         <v>1</v>
       </c>
       <c r="D243" t="s">
@@ -6828,10 +6832,10 @@
       <c r="A244" t="s">
         <v>252</v>
       </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-      <c r="C244">
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2">
         <v>1</v>
       </c>
       <c r="D244" t="s">
@@ -6845,10 +6849,10 @@
       <c r="A245" t="s">
         <v>253</v>
       </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-      <c r="C245">
+      <c r="B245" s="2">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2">
         <v>1</v>
       </c>
       <c r="D245" t="s">
@@ -6862,10 +6866,10 @@
       <c r="A246" t="s">
         <v>254</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-      <c r="C246">
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2">
         <v>1</v>
       </c>
       <c r="D246" t="s">
@@ -6879,10 +6883,10 @@
       <c r="A247" t="s">
         <v>255</v>
       </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-      <c r="C247">
+      <c r="B247" s="2">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2">
         <v>1</v>
       </c>
       <c r="D247" t="s">
@@ -6896,10 +6900,10 @@
       <c r="A248" t="s">
         <v>256</v>
       </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-      <c r="C248">
+      <c r="B248" s="2">
+        <v>1</v>
+      </c>
+      <c r="C248" s="2">
         <v>1</v>
       </c>
       <c r="D248" t="s">
@@ -6913,10 +6917,10 @@
       <c r="A249" t="s">
         <v>257</v>
       </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="C249">
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2">
         <v>1</v>
       </c>
       <c r="D249" t="s">
@@ -6930,10 +6934,10 @@
       <c r="A250" t="s">
         <v>258</v>
       </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-      <c r="C250">
+      <c r="B250" s="2">
+        <v>1</v>
+      </c>
+      <c r="C250" s="2">
         <v>1</v>
       </c>
       <c r="D250" t="s">
@@ -6947,10 +6951,10 @@
       <c r="A251" t="s">
         <v>259</v>
       </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-      <c r="C251">
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2">
         <v>1</v>
       </c>
       <c r="D251" t="s">
@@ -6964,10 +6968,10 @@
       <c r="A252" t="s">
         <v>260</v>
       </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-      <c r="C252">
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2">
         <v>1</v>
       </c>
       <c r="D252" t="s">
@@ -6981,10 +6985,10 @@
       <c r="A253" t="s">
         <v>261</v>
       </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253">
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2">
         <v>1</v>
       </c>
       <c r="D253" t="s">
@@ -6998,10 +7002,10 @@
       <c r="A254" t="s">
         <v>262</v>
       </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-      <c r="C254">
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2">
         <v>1</v>
       </c>
       <c r="D254" t="s">
@@ -7015,10 +7019,10 @@
       <c r="A255" t="s">
         <v>263</v>
       </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-      <c r="C255">
+      <c r="B255" s="2">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2">
         <v>1</v>
       </c>
       <c r="D255" t="s">
@@ -7032,10 +7036,10 @@
       <c r="A256" t="s">
         <v>264</v>
       </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="C256">
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2">
         <v>1</v>
       </c>
       <c r="D256" t="s">
@@ -7049,10 +7053,10 @@
       <c r="A257" t="s">
         <v>265</v>
       </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-      <c r="C257">
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2">
         <v>1</v>
       </c>
       <c r="D257" t="s">
@@ -7066,10 +7070,10 @@
       <c r="A258" t="s">
         <v>266</v>
       </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-      <c r="C258">
+      <c r="B258" s="2">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2">
         <v>1</v>
       </c>
       <c r="D258" t="s">
@@ -7083,10 +7087,10 @@
       <c r="A259" t="s">
         <v>267</v>
       </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-      <c r="C259">
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2">
         <v>1</v>
       </c>
       <c r="D259" t="s">
@@ -7100,10 +7104,10 @@
       <c r="A260" t="s">
         <v>268</v>
       </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-      <c r="C260">
+      <c r="B260" s="2">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2">
         <v>1</v>
       </c>
       <c r="D260" t="s">
@@ -7117,10 +7121,10 @@
       <c r="A261" t="s">
         <v>269</v>
       </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-      <c r="C261">
+      <c r="B261" s="2">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2">
         <v>1</v>
       </c>
       <c r="D261" t="s">
@@ -7134,10 +7138,10 @@
       <c r="A262" t="s">
         <v>270</v>
       </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262">
+      <c r="B262" s="2">
+        <v>1</v>
+      </c>
+      <c r="C262" s="2">
         <v>1</v>
       </c>
       <c r="D262" t="s">
@@ -7151,10 +7155,10 @@
       <c r="A263" t="s">
         <v>271</v>
       </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263">
+      <c r="B263" s="2">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2">
         <v>1</v>
       </c>
       <c r="D263" t="s">
@@ -7168,10 +7172,10 @@
       <c r="A264" t="s">
         <v>272</v>
       </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264">
+      <c r="B264" s="2">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2">
         <v>1</v>
       </c>
       <c r="D264" t="s">
@@ -7185,10 +7189,10 @@
       <c r="A265" t="s">
         <v>273</v>
       </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265">
+      <c r="B265" s="2">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2">
         <v>1</v>
       </c>
       <c r="D265" t="s">
@@ -7202,10 +7206,10 @@
       <c r="A266" t="s">
         <v>274</v>
       </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-      <c r="C266">
+      <c r="B266" s="2">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2">
         <v>1</v>
       </c>
       <c r="D266" t="s">
@@ -7219,10 +7223,10 @@
       <c r="A267" t="s">
         <v>275</v>
       </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-      <c r="C267">
+      <c r="B267" s="2">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2">
         <v>1</v>
       </c>
       <c r="D267" t="s">
@@ -7236,10 +7240,10 @@
       <c r="A268" t="s">
         <v>276</v>
       </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268">
+      <c r="B268" s="2">
+        <v>1</v>
+      </c>
+      <c r="C268" s="2">
         <v>1</v>
       </c>
       <c r="D268" t="s">
@@ -7253,10 +7257,10 @@
       <c r="A269" t="s">
         <v>277</v>
       </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-      <c r="C269">
+      <c r="B269" s="2">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2">
         <v>1</v>
       </c>
       <c r="D269" t="s">
@@ -7270,10 +7274,10 @@
       <c r="A270" t="s">
         <v>278</v>
       </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-      <c r="C270">
+      <c r="B270" s="2">
+        <v>1</v>
+      </c>
+      <c r="C270" s="2">
         <v>1</v>
       </c>
       <c r="D270" t="s">
@@ -7287,10 +7291,10 @@
       <c r="A271" t="s">
         <v>279</v>
       </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-      <c r="C271">
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2">
         <v>1</v>
       </c>
       <c r="D271" t="s">
@@ -7304,10 +7308,10 @@
       <c r="A272" t="s">
         <v>280</v>
       </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-      <c r="C272">
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
+      <c r="C272" s="2">
         <v>1</v>
       </c>
       <c r="D272" t="s">
@@ -7321,10 +7325,10 @@
       <c r="A273" t="s">
         <v>281</v>
       </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-      <c r="C273">
+      <c r="B273" s="2">
+        <v>1</v>
+      </c>
+      <c r="C273" s="2">
         <v>1</v>
       </c>
       <c r="D273" t="s">
@@ -7338,10 +7342,10 @@
       <c r="A274" t="s">
         <v>282</v>
       </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-      <c r="C274">
+      <c r="B274" s="2">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2">
         <v>1</v>
       </c>
       <c r="D274" t="s">
@@ -7355,10 +7359,10 @@
       <c r="A275" t="s">
         <v>283</v>
       </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-      <c r="C275">
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2">
         <v>1</v>
       </c>
       <c r="D275" t="s">
@@ -7372,10 +7376,10 @@
       <c r="A276" t="s">
         <v>284</v>
       </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-      <c r="C276">
+      <c r="B276" s="2">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2">
         <v>1</v>
       </c>
       <c r="D276" t="s">
@@ -7389,10 +7393,10 @@
       <c r="A277" t="s">
         <v>285</v>
       </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-      <c r="C277">
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
+      <c r="C277" s="2">
         <v>1</v>
       </c>
       <c r="D277" t="s">
@@ -7406,10 +7410,10 @@
       <c r="A278" t="s">
         <v>286</v>
       </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-      <c r="C278">
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2">
         <v>1</v>
       </c>
       <c r="D278" t="s">
@@ -7423,10 +7427,10 @@
       <c r="A279" t="s">
         <v>287</v>
       </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279">
+      <c r="B279" s="2">
+        <v>1</v>
+      </c>
+      <c r="C279" s="2">
         <v>1</v>
       </c>
       <c r="D279" t="s">
@@ -7440,10 +7444,10 @@
       <c r="A280" t="s">
         <v>288</v>
       </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-      <c r="C280">
+      <c r="B280" s="2">
+        <v>1</v>
+      </c>
+      <c r="C280" s="2">
         <v>1</v>
       </c>
       <c r="D280" t="s">
@@ -7457,10 +7461,10 @@
       <c r="A281" t="s">
         <v>289</v>
       </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-      <c r="C281">
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2">
         <v>1</v>
       </c>
       <c r="D281" t="s">
@@ -7474,10 +7478,10 @@
       <c r="A282" t="s">
         <v>290</v>
       </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-      <c r="C282">
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
+      <c r="C282" s="2">
         <v>1</v>
       </c>
       <c r="D282" t="s">
@@ -7491,10 +7495,10 @@
       <c r="A283" t="s">
         <v>291</v>
       </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-      <c r="C283">
+      <c r="B283" s="2">
+        <v>1</v>
+      </c>
+      <c r="C283" s="2">
         <v>1</v>
       </c>
       <c r="D283" t="s">
@@ -7508,10 +7512,10 @@
       <c r="A284" t="s">
         <v>292</v>
       </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-      <c r="C284">
+      <c r="B284" s="2">
+        <v>1</v>
+      </c>
+      <c r="C284" s="2">
         <v>1</v>
       </c>
       <c r="D284" t="s">
@@ -7525,10 +7529,10 @@
       <c r="A285" t="s">
         <v>293</v>
       </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285">
+      <c r="B285" s="2">
+        <v>1</v>
+      </c>
+      <c r="C285" s="2">
         <v>1</v>
       </c>
       <c r="D285" t="s">
@@ -7542,10 +7546,10 @@
       <c r="A286" t="s">
         <v>294</v>
       </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-      <c r="C286">
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2">
         <v>1</v>
       </c>
       <c r="D286" t="s">
@@ -7559,10 +7563,10 @@
       <c r="A287" t="s">
         <v>295</v>
       </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-      <c r="C287">
+      <c r="B287" s="2">
+        <v>1</v>
+      </c>
+      <c r="C287" s="2">
         <v>1</v>
       </c>
       <c r="D287" t="s">
@@ -7576,10 +7580,10 @@
       <c r="A288" t="s">
         <v>296</v>
       </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-      <c r="C288">
+      <c r="B288" s="2">
+        <v>1</v>
+      </c>
+      <c r="C288" s="2">
         <v>1</v>
       </c>
       <c r="D288" t="s">
@@ -7593,10 +7597,10 @@
       <c r="A289" t="s">
         <v>297</v>
       </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="C289">
+      <c r="B289" s="2">
+        <v>1</v>
+      </c>
+      <c r="C289" s="2">
         <v>1</v>
       </c>
       <c r="D289" t="s">
@@ -7610,10 +7614,10 @@
       <c r="A290" t="s">
         <v>298</v>
       </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-      <c r="C290">
+      <c r="B290" s="2">
+        <v>1</v>
+      </c>
+      <c r="C290" s="2">
         <v>1</v>
       </c>
       <c r="D290" t="s">
@@ -7627,10 +7631,10 @@
       <c r="A291" t="s">
         <v>299</v>
       </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-      <c r="C291">
+      <c r="B291" s="2">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2">
         <v>1</v>
       </c>
       <c r="D291" t="s">
@@ -7644,10 +7648,10 @@
       <c r="A292" t="s">
         <v>300</v>
       </c>
-      <c r="B292">
-        <v>1</v>
-      </c>
-      <c r="C292">
+      <c r="B292" s="2">
+        <v>1</v>
+      </c>
+      <c r="C292" s="2">
         <v>1</v>
       </c>
       <c r="D292" t="s">
@@ -7661,10 +7665,10 @@
       <c r="A293" t="s">
         <v>301</v>
       </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-      <c r="C293">
+      <c r="B293" s="2">
+        <v>1</v>
+      </c>
+      <c r="C293" s="2">
         <v>1</v>
       </c>
       <c r="D293" t="s">
@@ -7678,10 +7682,10 @@
       <c r="A294" t="s">
         <v>302</v>
       </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-      <c r="C294">
+      <c r="B294" s="2">
+        <v>1</v>
+      </c>
+      <c r="C294" s="2">
         <v>1</v>
       </c>
       <c r="D294" t="s">
@@ -7695,10 +7699,10 @@
       <c r="A295" t="s">
         <v>303</v>
       </c>
-      <c r="B295">
-        <v>1</v>
-      </c>
-      <c r="C295">
+      <c r="B295" s="2">
+        <v>1</v>
+      </c>
+      <c r="C295" s="2">
         <v>1</v>
       </c>
       <c r="D295" t="s">
@@ -7712,10 +7716,10 @@
       <c r="A296" t="s">
         <v>304</v>
       </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-      <c r="C296">
+      <c r="B296" s="2">
+        <v>1</v>
+      </c>
+      <c r="C296" s="2">
         <v>1</v>
       </c>
       <c r="D296" t="s">
@@ -7729,10 +7733,10 @@
       <c r="A297" t="s">
         <v>305</v>
       </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-      <c r="C297">
+      <c r="B297" s="2">
+        <v>1</v>
+      </c>
+      <c r="C297" s="2">
         <v>1</v>
       </c>
       <c r="D297" t="s">
@@ -7746,10 +7750,10 @@
       <c r="A298" t="s">
         <v>306</v>
       </c>
-      <c r="B298">
-        <v>1</v>
-      </c>
-      <c r="C298">
+      <c r="B298" s="2">
+        <v>1</v>
+      </c>
+      <c r="C298" s="2">
         <v>1</v>
       </c>
       <c r="D298" t="s">
@@ -7763,10 +7767,10 @@
       <c r="A299" t="s">
         <v>307</v>
       </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-      <c r="C299">
+      <c r="B299" s="2">
+        <v>1</v>
+      </c>
+      <c r="C299" s="2">
         <v>1</v>
       </c>
       <c r="D299" t="s">
@@ -7780,10 +7784,10 @@
       <c r="A300" t="s">
         <v>308</v>
       </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
-      <c r="C300">
+      <c r="B300" s="2">
+        <v>1</v>
+      </c>
+      <c r="C300" s="2">
         <v>1</v>
       </c>
       <c r="D300" t="s">
@@ -7797,10 +7801,10 @@
       <c r="A301" t="s">
         <v>309</v>
       </c>
-      <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301">
+      <c r="B301" s="2">
+        <v>1</v>
+      </c>
+      <c r="C301" s="2">
         <v>1</v>
       </c>
       <c r="D301" t="s">
@@ -7814,10 +7818,10 @@
       <c r="A302" t="s">
         <v>310</v>
       </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-      <c r="C302">
+      <c r="B302" s="2">
+        <v>1</v>
+      </c>
+      <c r="C302" s="2">
         <v>1</v>
       </c>
       <c r="D302" t="s">
@@ -7831,10 +7835,10 @@
       <c r="A303" t="s">
         <v>311</v>
       </c>
-      <c r="B303">
-        <v>1</v>
-      </c>
-      <c r="C303">
+      <c r="B303" s="2">
+        <v>1</v>
+      </c>
+      <c r="C303" s="2">
         <v>1</v>
       </c>
       <c r="D303" t="s">
@@ -7848,10 +7852,10 @@
       <c r="A304" t="s">
         <v>312</v>
       </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-      <c r="C304">
+      <c r="B304" s="2">
+        <v>1</v>
+      </c>
+      <c r="C304" s="2">
         <v>1</v>
       </c>
       <c r="D304" t="s">
@@ -7865,10 +7869,10 @@
       <c r="A305" t="s">
         <v>313</v>
       </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
-      <c r="C305">
+      <c r="B305" s="2">
+        <v>1</v>
+      </c>
+      <c r="C305" s="2">
         <v>1</v>
       </c>
       <c r="D305" t="s">
@@ -7882,10 +7886,10 @@
       <c r="A306" t="s">
         <v>314</v>
       </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
-      <c r="C306">
+      <c r="B306" s="2">
+        <v>1</v>
+      </c>
+      <c r="C306" s="2">
         <v>1</v>
       </c>
       <c r="D306" t="s">
@@ -7899,10 +7903,10 @@
       <c r="A307" t="s">
         <v>315</v>
       </c>
-      <c r="B307">
-        <v>1</v>
-      </c>
-      <c r="C307">
+      <c r="B307" s="2">
+        <v>1</v>
+      </c>
+      <c r="C307" s="2">
         <v>1</v>
       </c>
       <c r="D307" t="s">
@@ -7916,10 +7920,10 @@
       <c r="A308" t="s">
         <v>316</v>
       </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-      <c r="C308">
+      <c r="B308" s="2">
+        <v>1</v>
+      </c>
+      <c r="C308" s="2">
         <v>1</v>
       </c>
       <c r="D308" t="s">
@@ -7933,10 +7937,10 @@
       <c r="A309" t="s">
         <v>317</v>
       </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
-      <c r="C309">
+      <c r="B309" s="2">
+        <v>1</v>
+      </c>
+      <c r="C309" s="2">
         <v>1</v>
       </c>
       <c r="D309" t="s">
@@ -7950,10 +7954,10 @@
       <c r="A310" t="s">
         <v>318</v>
       </c>
-      <c r="B310">
-        <v>1</v>
-      </c>
-      <c r="C310">
+      <c r="B310" s="2">
+        <v>1</v>
+      </c>
+      <c r="C310" s="2">
         <v>1</v>
       </c>
       <c r="D310" t="s">
@@ -7967,10 +7971,10 @@
       <c r="A311" t="s">
         <v>319</v>
       </c>
-      <c r="B311">
-        <v>1</v>
-      </c>
-      <c r="C311">
+      <c r="B311" s="2">
+        <v>1</v>
+      </c>
+      <c r="C311" s="2">
         <v>1</v>
       </c>
       <c r="D311" t="s">
@@ -7984,10 +7988,10 @@
       <c r="A312" t="s">
         <v>320</v>
       </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
-      <c r="C312">
+      <c r="B312" s="2">
+        <v>1</v>
+      </c>
+      <c r="C312" s="2">
         <v>1</v>
       </c>
       <c r="D312" t="s">
@@ -8001,10 +8005,10 @@
       <c r="A313" t="s">
         <v>321</v>
       </c>
-      <c r="B313">
-        <v>1</v>
-      </c>
-      <c r="C313">
+      <c r="B313" s="2">
+        <v>1</v>
+      </c>
+      <c r="C313" s="2">
         <v>1</v>
       </c>
       <c r="D313" t="s">
@@ -8018,10 +8022,10 @@
       <c r="A314" t="s">
         <v>322</v>
       </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-      <c r="C314">
+      <c r="B314" s="2">
+        <v>1</v>
+      </c>
+      <c r="C314" s="2">
         <v>1</v>
       </c>
       <c r="D314" t="s">
@@ -8035,10 +8039,10 @@
       <c r="A315" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-      <c r="C315">
+      <c r="B315" s="2">
+        <v>1</v>
+      </c>
+      <c r="C315" s="2">
         <v>1</v>
       </c>
       <c r="D315" t="s">
@@ -8052,10 +8056,10 @@
       <c r="A316" t="s">
         <v>324</v>
       </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-      <c r="C316">
+      <c r="B316" s="2">
+        <v>1</v>
+      </c>
+      <c r="C316" s="2">
         <v>1</v>
       </c>
       <c r="D316" t="s">
@@ -8069,10 +8073,10 @@
       <c r="A317" t="s">
         <v>325</v>
       </c>
-      <c r="B317">
-        <v>1</v>
-      </c>
-      <c r="C317">
+      <c r="B317" s="2">
+        <v>1</v>
+      </c>
+      <c r="C317" s="2">
         <v>1</v>
       </c>
       <c r="D317" t="s">
@@ -8086,10 +8090,10 @@
       <c r="A318" t="s">
         <v>326</v>
       </c>
-      <c r="B318">
-        <v>1</v>
-      </c>
-      <c r="C318">
+      <c r="B318" s="2">
+        <v>1</v>
+      </c>
+      <c r="C318" s="2">
         <v>1</v>
       </c>
       <c r="D318" t="s">
@@ -8103,10 +8107,10 @@
       <c r="A319" t="s">
         <v>327</v>
       </c>
-      <c r="B319">
-        <v>1</v>
-      </c>
-      <c r="C319">
+      <c r="B319" s="2">
+        <v>1</v>
+      </c>
+      <c r="C319" s="2">
         <v>1</v>
       </c>
       <c r="D319" t="s">
@@ -8120,10 +8124,10 @@
       <c r="A320" t="s">
         <v>328</v>
       </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-      <c r="C320">
+      <c r="B320" s="2">
+        <v>1</v>
+      </c>
+      <c r="C320" s="2">
         <v>1</v>
       </c>
       <c r="D320" t="s">
@@ -8137,10 +8141,10 @@
       <c r="A321" t="s">
         <v>329</v>
       </c>
-      <c r="B321">
-        <v>1</v>
-      </c>
-      <c r="C321">
+      <c r="B321" s="2">
+        <v>1</v>
+      </c>
+      <c r="C321" s="2">
         <v>1</v>
       </c>
       <c r="D321" t="s">
@@ -8154,10 +8158,10 @@
       <c r="A322" t="s">
         <v>330</v>
       </c>
-      <c r="B322">
-        <v>1</v>
-      </c>
-      <c r="C322">
+      <c r="B322" s="2">
+        <v>1</v>
+      </c>
+      <c r="C322" s="2">
         <v>1</v>
       </c>
       <c r="D322" t="s">
@@ -8171,10 +8175,10 @@
       <c r="A323" t="s">
         <v>331</v>
       </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-      <c r="C323">
+      <c r="B323" s="2">
+        <v>1</v>
+      </c>
+      <c r="C323" s="2">
         <v>1</v>
       </c>
       <c r="D323" t="s">
@@ -8188,10 +8192,10 @@
       <c r="A324" t="s">
         <v>332</v>
       </c>
-      <c r="B324">
-        <v>1</v>
-      </c>
-      <c r="C324">
+      <c r="B324" s="2">
+        <v>1</v>
+      </c>
+      <c r="C324" s="2">
         <v>1</v>
       </c>
       <c r="D324" t="s">
@@ -8205,10 +8209,10 @@
       <c r="A325" t="s">
         <v>333</v>
       </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325">
+      <c r="B325" s="2">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2">
         <v>1</v>
       </c>
       <c r="D325" t="s">
@@ -8222,10 +8226,10 @@
       <c r="A326" t="s">
         <v>334</v>
       </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-      <c r="C326">
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2">
         <v>1</v>
       </c>
       <c r="D326" t="s">
@@ -8239,10 +8243,10 @@
       <c r="A327" t="s">
         <v>335</v>
       </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-      <c r="C327">
+      <c r="B327" s="2">
+        <v>1</v>
+      </c>
+      <c r="C327" s="2">
         <v>1</v>
       </c>
       <c r="D327" t="s">
@@ -8256,10 +8260,10 @@
       <c r="A328" t="s">
         <v>336</v>
       </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-      <c r="C328">
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+      <c r="C328" s="2">
         <v>1</v>
       </c>
       <c r="D328" t="s">
@@ -8273,10 +8277,10 @@
       <c r="A329" t="s">
         <v>337</v>
       </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-      <c r="C329">
+      <c r="B329" s="2">
+        <v>1</v>
+      </c>
+      <c r="C329" s="2">
         <v>1</v>
       </c>
       <c r="D329" t="s">
@@ -8290,10 +8294,10 @@
       <c r="A330" t="s">
         <v>338</v>
       </c>
-      <c r="B330">
-        <v>1</v>
-      </c>
-      <c r="C330">
+      <c r="B330" s="2">
+        <v>1</v>
+      </c>
+      <c r="C330" s="2">
         <v>1</v>
       </c>
       <c r="D330" t="s">
@@ -8307,10 +8311,10 @@
       <c r="A331" t="s">
         <v>339</v>
       </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-      <c r="C331">
+      <c r="B331" s="2">
+        <v>1</v>
+      </c>
+      <c r="C331" s="2">
         <v>1</v>
       </c>
       <c r="D331" t="s">
@@ -8324,10 +8328,10 @@
       <c r="A332" t="s">
         <v>340</v>
       </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
-      <c r="C332">
+      <c r="B332" s="2">
+        <v>1</v>
+      </c>
+      <c r="C332" s="2">
         <v>1</v>
       </c>
       <c r="D332" t="s">
@@ -8341,10 +8345,10 @@
       <c r="A333" t="s">
         <v>341</v>
       </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
-      <c r="C333">
+      <c r="B333" s="2">
+        <v>1</v>
+      </c>
+      <c r="C333" s="2">
         <v>1</v>
       </c>
       <c r="D333" t="s">
@@ -8358,10 +8362,10 @@
       <c r="A334" t="s">
         <v>342</v>
       </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-      <c r="C334">
+      <c r="B334" s="2">
+        <v>1</v>
+      </c>
+      <c r="C334" s="2">
         <v>1</v>
       </c>
       <c r="D334" t="s">
@@ -8375,10 +8379,10 @@
       <c r="A335" t="s">
         <v>343</v>
       </c>
-      <c r="B335">
-        <v>1</v>
-      </c>
-      <c r="C335">
+      <c r="B335" s="2">
+        <v>1</v>
+      </c>
+      <c r="C335" s="2">
         <v>1</v>
       </c>
       <c r="D335" t="s">
@@ -8392,10 +8396,10 @@
       <c r="A336" t="s">
         <v>344</v>
       </c>
-      <c r="B336">
-        <v>1</v>
-      </c>
-      <c r="C336">
+      <c r="B336" s="2">
+        <v>1</v>
+      </c>
+      <c r="C336" s="2">
         <v>1</v>
       </c>
       <c r="D336" t="s">
@@ -8409,10 +8413,10 @@
       <c r="A337" t="s">
         <v>345</v>
       </c>
-      <c r="B337">
-        <v>1</v>
-      </c>
-      <c r="C337">
+      <c r="B337" s="2">
+        <v>1</v>
+      </c>
+      <c r="C337" s="2">
         <v>1</v>
       </c>
       <c r="D337" t="s">
@@ -8426,10 +8430,10 @@
       <c r="A338" t="s">
         <v>346</v>
       </c>
-      <c r="B338">
-        <v>1</v>
-      </c>
-      <c r="C338">
+      <c r="B338" s="2">
+        <v>1</v>
+      </c>
+      <c r="C338" s="2">
         <v>1</v>
       </c>
       <c r="D338" t="s">
@@ -8443,10 +8447,10 @@
       <c r="A339" t="s">
         <v>347</v>
       </c>
-      <c r="B339">
-        <v>1</v>
-      </c>
-      <c r="C339">
+      <c r="B339" s="2">
+        <v>1</v>
+      </c>
+      <c r="C339" s="2">
         <v>1</v>
       </c>
       <c r="D339" t="s">
@@ -8460,10 +8464,10 @@
       <c r="A340" t="s">
         <v>348</v>
       </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
-      <c r="C340">
+      <c r="B340" s="2">
+        <v>1</v>
+      </c>
+      <c r="C340" s="2">
         <v>1</v>
       </c>
       <c r="D340" t="s">
@@ -8477,10 +8481,10 @@
       <c r="A341" t="s">
         <v>349</v>
       </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
-      <c r="C341">
+      <c r="B341" s="2">
+        <v>1</v>
+      </c>
+      <c r="C341" s="2">
         <v>1</v>
       </c>
       <c r="D341" t="s">
@@ -8494,10 +8498,10 @@
       <c r="A342" t="s">
         <v>350</v>
       </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
-      <c r="C342">
+      <c r="B342" s="2">
+        <v>1</v>
+      </c>
+      <c r="C342" s="2">
         <v>1</v>
       </c>
       <c r="D342" t="s">
@@ -8511,10 +8515,10 @@
       <c r="A343" t="s">
         <v>351</v>
       </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-      <c r="C343">
+      <c r="B343" s="2">
+        <v>1</v>
+      </c>
+      <c r="C343" s="2">
         <v>1</v>
       </c>
       <c r="D343" t="s">
@@ -8528,10 +8532,10 @@
       <c r="A344" t="s">
         <v>352</v>
       </c>
-      <c r="B344">
-        <v>1</v>
-      </c>
-      <c r="C344">
+      <c r="B344" s="2">
+        <v>1</v>
+      </c>
+      <c r="C344" s="2">
         <v>1</v>
       </c>
       <c r="D344" t="s">
@@ -8545,10 +8549,10 @@
       <c r="A345" t="s">
         <v>353</v>
       </c>
-      <c r="B345">
-        <v>1</v>
-      </c>
-      <c r="C345">
+      <c r="B345" s="2">
+        <v>1</v>
+      </c>
+      <c r="C345" s="2">
         <v>1</v>
       </c>
       <c r="D345" t="s">
@@ -8562,10 +8566,10 @@
       <c r="A346" t="s">
         <v>354</v>
       </c>
-      <c r="B346">
-        <v>1</v>
-      </c>
-      <c r="C346">
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+      <c r="C346" s="2">
         <v>1</v>
       </c>
       <c r="D346" t="s">
@@ -8579,10 +8583,10 @@
       <c r="A347" t="s">
         <v>355</v>
       </c>
-      <c r="B347">
-        <v>1</v>
-      </c>
-      <c r="C347">
+      <c r="B347" s="2">
+        <v>1</v>
+      </c>
+      <c r="C347" s="2">
         <v>1</v>
       </c>
       <c r="D347" t="s">
@@ -8596,10 +8600,10 @@
       <c r="A348" t="s">
         <v>356</v>
       </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-      <c r="C348">
+      <c r="B348" s="2">
+        <v>1</v>
+      </c>
+      <c r="C348" s="2">
         <v>1</v>
       </c>
       <c r="D348" t="s">
@@ -8613,10 +8617,10 @@
       <c r="A349" t="s">
         <v>357</v>
       </c>
-      <c r="B349">
-        <v>1</v>
-      </c>
-      <c r="C349">
+      <c r="B349" s="2">
+        <v>1</v>
+      </c>
+      <c r="C349" s="2">
         <v>1</v>
       </c>
       <c r="D349" t="s">
@@ -8630,10 +8634,10 @@
       <c r="A350" t="s">
         <v>358</v>
       </c>
-      <c r="B350">
-        <v>1</v>
-      </c>
-      <c r="C350">
+      <c r="B350" s="2">
+        <v>1</v>
+      </c>
+      <c r="C350" s="2">
         <v>1</v>
       </c>
       <c r="D350" t="s">
@@ -8647,10 +8651,10 @@
       <c r="A351" t="s">
         <v>359</v>
       </c>
-      <c r="B351">
-        <v>1</v>
-      </c>
-      <c r="C351">
+      <c r="B351" s="2">
+        <v>1</v>
+      </c>
+      <c r="C351" s="2">
         <v>1</v>
       </c>
       <c r="D351" t="s">
@@ -8664,10 +8668,10 @@
       <c r="A352" t="s">
         <v>360</v>
       </c>
-      <c r="B352">
-        <v>1</v>
-      </c>
-      <c r="C352">
+      <c r="B352" s="2">
+        <v>1</v>
+      </c>
+      <c r="C352" s="2">
         <v>1</v>
       </c>
       <c r="D352" t="s">
@@ -8681,10 +8685,10 @@
       <c r="A353" t="s">
         <v>361</v>
       </c>
-      <c r="B353">
-        <v>1</v>
-      </c>
-      <c r="C353">
+      <c r="B353" s="2">
+        <v>1</v>
+      </c>
+      <c r="C353" s="2">
         <v>1</v>
       </c>
       <c r="D353" t="s">
@@ -8698,10 +8702,10 @@
       <c r="A354" t="s">
         <v>362</v>
       </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-      <c r="C354">
+      <c r="B354" s="2">
+        <v>1</v>
+      </c>
+      <c r="C354" s="2">
         <v>1</v>
       </c>
       <c r="D354" t="s">
@@ -8715,10 +8719,10 @@
       <c r="A355" t="s">
         <v>363</v>
       </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
-      <c r="C355">
+      <c r="B355" s="2">
+        <v>1</v>
+      </c>
+      <c r="C355" s="2">
         <v>1</v>
       </c>
       <c r="D355" t="s">
@@ -8732,10 +8736,10 @@
       <c r="A356" t="s">
         <v>364</v>
       </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
-      <c r="C356">
+      <c r="B356" s="2">
+        <v>1</v>
+      </c>
+      <c r="C356" s="2">
         <v>1</v>
       </c>
       <c r="D356" t="s">
@@ -8749,10 +8753,10 @@
       <c r="A357" t="s">
         <v>365</v>
       </c>
-      <c r="B357">
-        <v>1</v>
-      </c>
-      <c r="C357">
+      <c r="B357" s="2">
+        <v>1</v>
+      </c>
+      <c r="C357" s="2">
         <v>1</v>
       </c>
       <c r="D357" t="s">
@@ -8766,10 +8770,10 @@
       <c r="A358" t="s">
         <v>366</v>
       </c>
-      <c r="B358">
-        <v>1</v>
-      </c>
-      <c r="C358">
+      <c r="B358" s="2">
+        <v>1</v>
+      </c>
+      <c r="C358" s="2">
         <v>1</v>
       </c>
       <c r="D358" t="s">
@@ -8783,10 +8787,10 @@
       <c r="A359" t="s">
         <v>367</v>
       </c>
-      <c r="B359">
-        <v>1</v>
-      </c>
-      <c r="C359">
+      <c r="B359" s="2">
+        <v>1</v>
+      </c>
+      <c r="C359" s="2">
         <v>1</v>
       </c>
       <c r="D359" t="s">
@@ -8800,10 +8804,10 @@
       <c r="A360" t="s">
         <v>368</v>
       </c>
-      <c r="B360">
-        <v>1</v>
-      </c>
-      <c r="C360">
+      <c r="B360" s="2">
+        <v>1</v>
+      </c>
+      <c r="C360" s="2">
         <v>1</v>
       </c>
       <c r="D360" t="s">
@@ -8817,10 +8821,10 @@
       <c r="A361" t="s">
         <v>369</v>
       </c>
-      <c r="B361">
-        <v>1</v>
-      </c>
-      <c r="C361">
+      <c r="B361" s="2">
+        <v>1</v>
+      </c>
+      <c r="C361" s="2">
         <v>1</v>
       </c>
       <c r="D361" t="s">
@@ -8834,10 +8838,10 @@
       <c r="A362" t="s">
         <v>370</v>
       </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-      <c r="C362">
+      <c r="B362" s="2">
+        <v>1</v>
+      </c>
+      <c r="C362" s="2">
         <v>1</v>
       </c>
       <c r="D362" t="s">
@@ -8851,10 +8855,10 @@
       <c r="A363" t="s">
         <v>371</v>
       </c>
-      <c r="B363">
-        <v>1</v>
-      </c>
-      <c r="C363">
+      <c r="B363" s="2">
+        <v>1</v>
+      </c>
+      <c r="C363" s="2">
         <v>1</v>
       </c>
       <c r="D363" t="s">
@@ -8868,10 +8872,10 @@
       <c r="A364" t="s">
         <v>372</v>
       </c>
-      <c r="B364">
-        <v>1</v>
-      </c>
-      <c r="C364">
+      <c r="B364" s="2">
+        <v>1</v>
+      </c>
+      <c r="C364" s="2">
         <v>1</v>
       </c>
       <c r="D364" t="s">
@@ -8885,10 +8889,10 @@
       <c r="A365" t="s">
         <v>373</v>
       </c>
-      <c r="B365">
-        <v>1</v>
-      </c>
-      <c r="C365">
+      <c r="B365" s="2">
+        <v>1</v>
+      </c>
+      <c r="C365" s="2">
         <v>1</v>
       </c>
       <c r="D365" t="s">
@@ -8902,10 +8906,10 @@
       <c r="A366" t="s">
         <v>374</v>
       </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-      <c r="C366">
+      <c r="B366" s="2">
+        <v>1</v>
+      </c>
+      <c r="C366" s="2">
         <v>1</v>
       </c>
       <c r="D366" t="s">
@@ -8919,10 +8923,10 @@
       <c r="A367" t="s">
         <v>375</v>
       </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367">
+      <c r="B367" s="2">
+        <v>1</v>
+      </c>
+      <c r="C367" s="2">
         <v>1</v>
       </c>
       <c r="D367" t="s">
@@ -8936,10 +8940,10 @@
       <c r="A368" t="s">
         <v>376</v>
       </c>
-      <c r="B368">
-        <v>1</v>
-      </c>
-      <c r="C368">
+      <c r="B368" s="2">
+        <v>1</v>
+      </c>
+      <c r="C368" s="2">
         <v>1</v>
       </c>
       <c r="D368" t="s">
@@ -8953,10 +8957,10 @@
       <c r="A369" t="s">
         <v>377</v>
       </c>
-      <c r="B369">
-        <v>1</v>
-      </c>
-      <c r="C369">
+      <c r="B369" s="2">
+        <v>1</v>
+      </c>
+      <c r="C369" s="2">
         <v>1</v>
       </c>
       <c r="D369" t="s">
@@ -8970,10 +8974,10 @@
       <c r="A370" t="s">
         <v>378</v>
       </c>
-      <c r="B370">
-        <v>1</v>
-      </c>
-      <c r="C370">
+      <c r="B370" s="2">
+        <v>1</v>
+      </c>
+      <c r="C370" s="2">
         <v>1</v>
       </c>
       <c r="D370" t="s">
@@ -8987,10 +8991,10 @@
       <c r="A371" t="s">
         <v>379</v>
       </c>
-      <c r="B371">
-        <v>1</v>
-      </c>
-      <c r="C371">
+      <c r="B371" s="2">
+        <v>1</v>
+      </c>
+      <c r="C371" s="2">
         <v>1</v>
       </c>
       <c r="D371" t="s">
@@ -9004,10 +9008,10 @@
       <c r="A372" t="s">
         <v>380</v>
       </c>
-      <c r="B372">
-        <v>1</v>
-      </c>
-      <c r="C372">
+      <c r="B372" s="2">
+        <v>1</v>
+      </c>
+      <c r="C372" s="2">
         <v>1</v>
       </c>
       <c r="D372" t="s">
@@ -9021,10 +9025,10 @@
       <c r="A373" t="s">
         <v>381</v>
       </c>
-      <c r="B373">
-        <v>1</v>
-      </c>
-      <c r="C373">
+      <c r="B373" s="2">
+        <v>1</v>
+      </c>
+      <c r="C373" s="2">
         <v>1</v>
       </c>
       <c r="D373" t="s">
@@ -9038,10 +9042,10 @@
       <c r="A374" t="s">
         <v>382</v>
       </c>
-      <c r="B374">
-        <v>1</v>
-      </c>
-      <c r="C374">
+      <c r="B374" s="2">
+        <v>1</v>
+      </c>
+      <c r="C374" s="2">
         <v>1</v>
       </c>
       <c r="D374" t="s">
@@ -9055,10 +9059,10 @@
       <c r="A375" t="s">
         <v>383</v>
       </c>
-      <c r="B375">
-        <v>1</v>
-      </c>
-      <c r="C375">
+      <c r="B375" s="2">
+        <v>1</v>
+      </c>
+      <c r="C375" s="2">
         <v>1</v>
       </c>
       <c r="D375" t="s">
@@ -9072,10 +9076,10 @@
       <c r="A376" t="s">
         <v>384</v>
       </c>
-      <c r="B376">
-        <v>1</v>
-      </c>
-      <c r="C376">
+      <c r="B376" s="2">
+        <v>1</v>
+      </c>
+      <c r="C376" s="2">
         <v>1</v>
       </c>
       <c r="D376" t="s">
@@ -9089,10 +9093,10 @@
       <c r="A377" t="s">
         <v>385</v>
       </c>
-      <c r="B377">
-        <v>1</v>
-      </c>
-      <c r="C377">
+      <c r="B377" s="2">
+        <v>1</v>
+      </c>
+      <c r="C377" s="2">
         <v>1</v>
       </c>
       <c r="D377" t="s">
@@ -9106,10 +9110,10 @@
       <c r="A378" t="s">
         <v>386</v>
       </c>
-      <c r="B378">
-        <v>1</v>
-      </c>
-      <c r="C378">
+      <c r="B378" s="2">
+        <v>1</v>
+      </c>
+      <c r="C378" s="2">
         <v>1</v>
       </c>
       <c r="D378" t="s">
@@ -9123,10 +9127,10 @@
       <c r="A379" t="s">
         <v>387</v>
       </c>
-      <c r="B379">
-        <v>1</v>
-      </c>
-      <c r="C379">
+      <c r="B379" s="2">
+        <v>1</v>
+      </c>
+      <c r="C379" s="2">
         <v>1</v>
       </c>
       <c r="D379" t="s">
@@ -9140,10 +9144,10 @@
       <c r="A380" t="s">
         <v>388</v>
       </c>
-      <c r="B380">
-        <v>1</v>
-      </c>
-      <c r="C380">
+      <c r="B380" s="2">
+        <v>1</v>
+      </c>
+      <c r="C380" s="2">
         <v>1</v>
       </c>
       <c r="D380" t="s">
@@ -9157,10 +9161,10 @@
       <c r="A381" t="s">
         <v>389</v>
       </c>
-      <c r="B381">
-        <v>1</v>
-      </c>
-      <c r="C381">
+      <c r="B381" s="2">
+        <v>1</v>
+      </c>
+      <c r="C381" s="2">
         <v>1</v>
       </c>
       <c r="D381" t="s">
@@ -9174,10 +9178,10 @@
       <c r="A382" t="s">
         <v>390</v>
       </c>
-      <c r="B382">
-        <v>1</v>
-      </c>
-      <c r="C382">
+      <c r="B382" s="2">
+        <v>1</v>
+      </c>
+      <c r="C382" s="2">
         <v>1</v>
       </c>
       <c r="D382" t="s">
@@ -9191,10 +9195,10 @@
       <c r="A383" t="s">
         <v>391</v>
       </c>
-      <c r="B383">
-        <v>1</v>
-      </c>
-      <c r="C383">
+      <c r="B383" s="2">
+        <v>1</v>
+      </c>
+      <c r="C383" s="2">
         <v>1</v>
       </c>
       <c r="D383" t="s">
@@ -9208,10 +9212,10 @@
       <c r="A384" t="s">
         <v>392</v>
       </c>
-      <c r="B384">
-        <v>1</v>
-      </c>
-      <c r="C384">
+      <c r="B384" s="2">
+        <v>1</v>
+      </c>
+      <c r="C384" s="2">
         <v>1</v>
       </c>
       <c r="D384" t="s">
@@ -9225,10 +9229,10 @@
       <c r="A385" t="s">
         <v>393</v>
       </c>
-      <c r="B385">
-        <v>1</v>
-      </c>
-      <c r="C385">
+      <c r="B385" s="2">
+        <v>1</v>
+      </c>
+      <c r="C385" s="2">
         <v>1</v>
       </c>
       <c r="D385" t="s">
@@ -9242,10 +9246,10 @@
       <c r="A386" t="s">
         <v>394</v>
       </c>
-      <c r="B386">
-        <v>1</v>
-      </c>
-      <c r="C386">
+      <c r="B386" s="2">
+        <v>1</v>
+      </c>
+      <c r="C386" s="2">
         <v>1</v>
       </c>
       <c r="D386" t="s">
@@ -9259,10 +9263,10 @@
       <c r="A387" t="s">
         <v>395</v>
       </c>
-      <c r="B387">
-        <v>1</v>
-      </c>
-      <c r="C387">
+      <c r="B387" s="2">
+        <v>1</v>
+      </c>
+      <c r="C387" s="2">
         <v>1</v>
       </c>
       <c r="D387" t="s">
@@ -9276,10 +9280,10 @@
       <c r="A388" t="s">
         <v>396</v>
       </c>
-      <c r="B388">
-        <v>1</v>
-      </c>
-      <c r="C388">
+      <c r="B388" s="2">
+        <v>1</v>
+      </c>
+      <c r="C388" s="2">
         <v>1</v>
       </c>
       <c r="D388" t="s">
@@ -9293,10 +9297,10 @@
       <c r="A389" t="s">
         <v>397</v>
       </c>
-      <c r="B389">
-        <v>1</v>
-      </c>
-      <c r="C389">
+      <c r="B389" s="2">
+        <v>1</v>
+      </c>
+      <c r="C389" s="2">
         <v>1</v>
       </c>
       <c r="D389" t="s">
@@ -9310,10 +9314,10 @@
       <c r="A390" t="s">
         <v>398</v>
       </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-      <c r="C390">
+      <c r="B390" s="2">
+        <v>1</v>
+      </c>
+      <c r="C390" s="2">
         <v>1</v>
       </c>
       <c r="D390" t="s">
@@ -9327,10 +9331,10 @@
       <c r="A391" t="s">
         <v>399</v>
       </c>
-      <c r="B391">
-        <v>1</v>
-      </c>
-      <c r="C391">
+      <c r="B391" s="2">
+        <v>1</v>
+      </c>
+      <c r="C391" s="2">
         <v>1</v>
       </c>
       <c r="D391" t="s">
@@ -9344,10 +9348,10 @@
       <c r="A392" t="s">
         <v>400</v>
       </c>
-      <c r="B392">
-        <v>1</v>
-      </c>
-      <c r="C392">
+      <c r="B392" s="2">
+        <v>1</v>
+      </c>
+      <c r="C392" s="2">
         <v>1</v>
       </c>
       <c r="D392" t="s">
@@ -9361,10 +9365,10 @@
       <c r="A393" t="s">
         <v>401</v>
       </c>
-      <c r="B393">
-        <v>1</v>
-      </c>
-      <c r="C393">
+      <c r="B393" s="2">
+        <v>1</v>
+      </c>
+      <c r="C393" s="2">
         <v>1</v>
       </c>
       <c r="D393" t="s">
@@ -9378,10 +9382,10 @@
       <c r="A394" t="s">
         <v>402</v>
       </c>
-      <c r="B394">
-        <v>1</v>
-      </c>
-      <c r="C394">
+      <c r="B394" s="2">
+        <v>1</v>
+      </c>
+      <c r="C394" s="2">
         <v>1</v>
       </c>
       <c r="D394" t="s">
@@ -9395,10 +9399,10 @@
       <c r="A395" t="s">
         <v>403</v>
       </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-      <c r="C395">
+      <c r="B395" s="2">
+        <v>1</v>
+      </c>
+      <c r="C395" s="2">
         <v>1</v>
       </c>
       <c r="D395" t="s">
@@ -9412,10 +9416,10 @@
       <c r="A396" t="s">
         <v>404</v>
       </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-      <c r="C396">
+      <c r="B396" s="2">
+        <v>1</v>
+      </c>
+      <c r="C396" s="2">
         <v>1</v>
       </c>
       <c r="D396" t="s">
@@ -9429,10 +9433,10 @@
       <c r="A397" t="s">
         <v>405</v>
       </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-      <c r="C397">
+      <c r="B397" s="2">
+        <v>1</v>
+      </c>
+      <c r="C397" s="2">
         <v>1</v>
       </c>
       <c r="D397" t="s">
@@ -9446,10 +9450,10 @@
       <c r="A398" t="s">
         <v>406</v>
       </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-      <c r="C398">
+      <c r="B398" s="2">
+        <v>1</v>
+      </c>
+      <c r="C398" s="2">
         <v>1</v>
       </c>
       <c r="D398" t="s">
@@ -9463,10 +9467,10 @@
       <c r="A399" t="s">
         <v>407</v>
       </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-      <c r="C399">
+      <c r="B399" s="2">
+        <v>1</v>
+      </c>
+      <c r="C399" s="2">
         <v>1</v>
       </c>
       <c r="D399" t="s">
@@ -9480,10 +9484,10 @@
       <c r="A400" t="s">
         <v>408</v>
       </c>
-      <c r="B400">
-        <v>1</v>
-      </c>
-      <c r="C400">
+      <c r="B400" s="2">
+        <v>1</v>
+      </c>
+      <c r="C400" s="2">
         <v>1</v>
       </c>
       <c r="D400" t="s">
@@ -9497,10 +9501,10 @@
       <c r="A401" t="s">
         <v>409</v>
       </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-      <c r="C401">
+      <c r="B401" s="2">
+        <v>1</v>
+      </c>
+      <c r="C401" s="2">
         <v>1</v>
       </c>
       <c r="D401" t="s">
@@ -9514,10 +9518,10 @@
       <c r="A402" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B402">
-        <v>1</v>
-      </c>
-      <c r="C402">
+      <c r="B402" s="2">
+        <v>1</v>
+      </c>
+      <c r="C402" s="2">
         <v>1</v>
       </c>
       <c r="D402" t="s">
@@ -9531,10 +9535,10 @@
       <c r="A403" t="s">
         <v>411</v>
       </c>
-      <c r="B403">
-        <v>1</v>
-      </c>
-      <c r="C403">
+      <c r="B403" s="2">
+        <v>1</v>
+      </c>
+      <c r="C403" s="2">
         <v>1</v>
       </c>
       <c r="D403" t="s">
@@ -9548,10 +9552,10 @@
       <c r="A404" t="s">
         <v>412</v>
       </c>
-      <c r="B404">
-        <v>1</v>
-      </c>
-      <c r="C404">
+      <c r="B404" s="2">
+        <v>1</v>
+      </c>
+      <c r="C404" s="2">
         <v>1</v>
       </c>
       <c r="D404" t="s">
@@ -9565,10 +9569,10 @@
       <c r="A405" t="s">
         <v>413</v>
       </c>
-      <c r="B405">
-        <v>1</v>
-      </c>
-      <c r="C405">
+      <c r="B405" s="2">
+        <v>1</v>
+      </c>
+      <c r="C405" s="2">
         <v>1</v>
       </c>
       <c r="D405" t="s">
@@ -9582,10 +9586,10 @@
       <c r="A406" t="s">
         <v>414</v>
       </c>
-      <c r="B406">
-        <v>1</v>
-      </c>
-      <c r="C406">
+      <c r="B406" s="2">
+        <v>1</v>
+      </c>
+      <c r="C406" s="2">
         <v>1</v>
       </c>
       <c r="D406" t="s">
@@ -9599,10 +9603,10 @@
       <c r="A407" t="s">
         <v>415</v>
       </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-      <c r="C407">
+      <c r="B407" s="2">
+        <v>1</v>
+      </c>
+      <c r="C407" s="2">
         <v>1</v>
       </c>
       <c r="D407" t="s">
@@ -9616,10 +9620,10 @@
       <c r="A408" t="s">
         <v>416</v>
       </c>
-      <c r="B408">
-        <v>1</v>
-      </c>
-      <c r="C408">
+      <c r="B408" s="2">
+        <v>1</v>
+      </c>
+      <c r="C408" s="2">
         <v>1</v>
       </c>
       <c r="D408" t="s">
@@ -9633,10 +9637,10 @@
       <c r="A409" t="s">
         <v>417</v>
       </c>
-      <c r="B409">
-        <v>1</v>
-      </c>
-      <c r="C409">
+      <c r="B409" s="2">
+        <v>1</v>
+      </c>
+      <c r="C409" s="2">
         <v>1</v>
       </c>
       <c r="D409" t="s">
@@ -9650,10 +9654,10 @@
       <c r="A410" t="s">
         <v>418</v>
       </c>
-      <c r="B410">
-        <v>1</v>
-      </c>
-      <c r="C410">
+      <c r="B410" s="2">
+        <v>1</v>
+      </c>
+      <c r="C410" s="2">
         <v>1</v>
       </c>
       <c r="D410" t="s">
@@ -9667,10 +9671,10 @@
       <c r="A411" t="s">
         <v>419</v>
       </c>
-      <c r="B411">
-        <v>1</v>
-      </c>
-      <c r="C411">
+      <c r="B411" s="2">
+        <v>1</v>
+      </c>
+      <c r="C411" s="2">
         <v>1</v>
       </c>
       <c r="D411" t="s">
@@ -9684,10 +9688,10 @@
       <c r="A412" t="s">
         <v>420</v>
       </c>
-      <c r="B412">
-        <v>1</v>
-      </c>
-      <c r="C412">
+      <c r="B412" s="2">
+        <v>1</v>
+      </c>
+      <c r="C412" s="2">
         <v>1</v>
       </c>
       <c r="D412" t="s">
@@ -9701,10 +9705,10 @@
       <c r="A413" t="s">
         <v>421</v>
       </c>
-      <c r="B413">
-        <v>1</v>
-      </c>
-      <c r="C413">
+      <c r="B413" s="2">
+        <v>1</v>
+      </c>
+      <c r="C413" s="2">
         <v>1</v>
       </c>
       <c r="D413" t="s">
@@ -9718,10 +9722,10 @@
       <c r="A414" t="s">
         <v>422</v>
       </c>
-      <c r="B414">
-        <v>1</v>
-      </c>
-      <c r="C414">
+      <c r="B414" s="2">
+        <v>1</v>
+      </c>
+      <c r="C414" s="2">
         <v>1</v>
       </c>
       <c r="D414" t="s">
@@ -9735,10 +9739,10 @@
       <c r="A415" t="s">
         <v>423</v>
       </c>
-      <c r="B415">
-        <v>1</v>
-      </c>
-      <c r="C415">
+      <c r="B415" s="2">
+        <v>1</v>
+      </c>
+      <c r="C415" s="2">
         <v>1</v>
       </c>
       <c r="D415" t="s">
@@ -9752,10 +9756,10 @@
       <c r="A416" t="s">
         <v>424</v>
       </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-      <c r="C416">
+      <c r="B416" s="2">
+        <v>1</v>
+      </c>
+      <c r="C416" s="2">
         <v>1</v>
       </c>
       <c r="D416" t="s">
@@ -9769,10 +9773,10 @@
       <c r="A417" t="s">
         <v>425</v>
       </c>
-      <c r="B417">
-        <v>1</v>
-      </c>
-      <c r="C417">
+      <c r="B417" s="2">
+        <v>1</v>
+      </c>
+      <c r="C417" s="2">
         <v>1</v>
       </c>
       <c r="D417" t="s">
@@ -9786,10 +9790,10 @@
       <c r="A418" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B418">
-        <v>1</v>
-      </c>
-      <c r="C418">
+      <c r="B418" s="2">
+        <v>1</v>
+      </c>
+      <c r="C418" s="2">
         <v>1</v>
       </c>
       <c r="D418" t="s">
@@ -9803,10 +9807,10 @@
       <c r="A419" t="s">
         <v>427</v>
       </c>
-      <c r="B419">
-        <v>1</v>
-      </c>
-      <c r="C419">
+      <c r="B419" s="2">
+        <v>1</v>
+      </c>
+      <c r="C419" s="2">
         <v>1</v>
       </c>
       <c r="D419" t="s">
@@ -9820,10 +9824,10 @@
       <c r="A420" t="s">
         <v>428</v>
       </c>
-      <c r="B420">
-        <v>1</v>
-      </c>
-      <c r="C420">
+      <c r="B420" s="2">
+        <v>1</v>
+      </c>
+      <c r="C420" s="2">
         <v>1</v>
       </c>
       <c r="D420" t="s">
@@ -9837,10 +9841,10 @@
       <c r="A421" t="s">
         <v>429</v>
       </c>
-      <c r="B421">
-        <v>1</v>
-      </c>
-      <c r="C421">
+      <c r="B421" s="2">
+        <v>1</v>
+      </c>
+      <c r="C421" s="2">
         <v>1</v>
       </c>
       <c r="D421" t="s">
@@ -9854,10 +9858,10 @@
       <c r="A422" t="s">
         <v>430</v>
       </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-      <c r="C422">
+      <c r="B422" s="2">
+        <v>1</v>
+      </c>
+      <c r="C422" s="2">
         <v>1</v>
       </c>
       <c r="D422" t="s">
@@ -9871,10 +9875,10 @@
       <c r="A423" t="s">
         <v>431</v>
       </c>
-      <c r="B423">
-        <v>1</v>
-      </c>
-      <c r="C423">
+      <c r="B423" s="2">
+        <v>1</v>
+      </c>
+      <c r="C423" s="2">
         <v>1</v>
       </c>
       <c r="D423" t="s">
@@ -9888,10 +9892,10 @@
       <c r="A424" t="s">
         <v>432</v>
       </c>
-      <c r="B424">
-        <v>1</v>
-      </c>
-      <c r="C424">
+      <c r="B424" s="2">
+        <v>1</v>
+      </c>
+      <c r="C424" s="2">
         <v>1</v>
       </c>
       <c r="D424" t="s">
@@ -9905,10 +9909,10 @@
       <c r="A425" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B425">
-        <v>1</v>
-      </c>
-      <c r="C425">
+      <c r="B425" s="2">
+        <v>1</v>
+      </c>
+      <c r="C425" s="2">
         <v>1</v>
       </c>
       <c r="D425" t="s">
@@ -9922,10 +9926,10 @@
       <c r="A426" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B426">
-        <v>1</v>
-      </c>
-      <c r="C426">
+      <c r="B426" s="2">
+        <v>1</v>
+      </c>
+      <c r="C426" s="2">
         <v>1</v>
       </c>
       <c r="D426" t="s">
@@ -9939,10 +9943,10 @@
       <c r="A427" t="s">
         <v>435</v>
       </c>
-      <c r="B427">
-        <v>1</v>
-      </c>
-      <c r="C427">
+      <c r="B427" s="2">
+        <v>1</v>
+      </c>
+      <c r="C427" s="2">
         <v>1</v>
       </c>
       <c r="D427" t="s">
@@ -9956,10 +9960,10 @@
       <c r="A428" t="s">
         <v>436</v>
       </c>
-      <c r="B428">
-        <v>1</v>
-      </c>
-      <c r="C428">
+      <c r="B428" s="2">
+        <v>1</v>
+      </c>
+      <c r="C428" s="2">
         <v>1</v>
       </c>
       <c r="D428" t="s">
@@ -9973,10 +9977,10 @@
       <c r="A429" t="s">
         <v>437</v>
       </c>
-      <c r="B429">
-        <v>1</v>
-      </c>
-      <c r="C429">
+      <c r="B429" s="2">
+        <v>1</v>
+      </c>
+      <c r="C429" s="2">
         <v>1</v>
       </c>
       <c r="D429" t="s">
@@ -9990,10 +9994,10 @@
       <c r="A430" t="s">
         <v>438</v>
       </c>
-      <c r="B430">
-        <v>1</v>
-      </c>
-      <c r="C430">
+      <c r="B430" s="2">
+        <v>1</v>
+      </c>
+      <c r="C430" s="2">
         <v>1</v>
       </c>
       <c r="D430" t="s">
@@ -10007,10 +10011,10 @@
       <c r="A431" t="s">
         <v>439</v>
       </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-      <c r="C431">
+      <c r="B431" s="2">
+        <v>1</v>
+      </c>
+      <c r="C431" s="2">
         <v>1</v>
       </c>
       <c r="D431" t="s">
@@ -10024,10 +10028,10 @@
       <c r="A432" t="s">
         <v>440</v>
       </c>
-      <c r="B432">
-        <v>1</v>
-      </c>
-      <c r="C432">
+      <c r="B432" s="2">
+        <v>1</v>
+      </c>
+      <c r="C432" s="2">
         <v>1</v>
       </c>
       <c r="D432" t="s">
@@ -10041,10 +10045,10 @@
       <c r="A433" t="s">
         <v>441</v>
       </c>
-      <c r="B433">
-        <v>1</v>
-      </c>
-      <c r="C433">
+      <c r="B433" s="2">
+        <v>1</v>
+      </c>
+      <c r="C433" s="2">
         <v>1</v>
       </c>
       <c r="D433" t="s">
@@ -10058,10 +10062,10 @@
       <c r="A434" t="s">
         <v>442</v>
       </c>
-      <c r="B434">
-        <v>1</v>
-      </c>
-      <c r="C434">
+      <c r="B434" s="2">
+        <v>1</v>
+      </c>
+      <c r="C434" s="2">
         <v>1</v>
       </c>
       <c r="D434" t="s">
@@ -10075,10 +10079,10 @@
       <c r="A435" t="s">
         <v>443</v>
       </c>
-      <c r="B435">
-        <v>1</v>
-      </c>
-      <c r="C435">
+      <c r="B435" s="2">
+        <v>1</v>
+      </c>
+      <c r="C435" s="2">
         <v>1</v>
       </c>
       <c r="D435" t="s">
@@ -10092,10 +10096,10 @@
       <c r="A436" t="s">
         <v>444</v>
       </c>
-      <c r="B436">
-        <v>1</v>
-      </c>
-      <c r="C436">
+      <c r="B436" s="2">
+        <v>1</v>
+      </c>
+      <c r="C436" s="2">
         <v>1</v>
       </c>
       <c r="D436" t="s">
@@ -10109,10 +10113,10 @@
       <c r="A437" t="s">
         <v>445</v>
       </c>
-      <c r="B437">
-        <v>1</v>
-      </c>
-      <c r="C437">
+      <c r="B437" s="2">
+        <v>1</v>
+      </c>
+      <c r="C437" s="2">
         <v>1</v>
       </c>
       <c r="D437" t="s">
@@ -10126,10 +10130,10 @@
       <c r="A438" t="s">
         <v>446</v>
       </c>
-      <c r="B438">
-        <v>1</v>
-      </c>
-      <c r="C438">
+      <c r="B438" s="2">
+        <v>1</v>
+      </c>
+      <c r="C438" s="2">
         <v>1</v>
       </c>
       <c r="D438" t="s">
@@ -10143,10 +10147,10 @@
       <c r="A439" t="s">
         <v>447</v>
       </c>
-      <c r="B439">
-        <v>1</v>
-      </c>
-      <c r="C439">
+      <c r="B439" s="2">
+        <v>1</v>
+      </c>
+      <c r="C439" s="2">
         <v>1</v>
       </c>
       <c r="D439" t="s">
@@ -10160,10 +10164,10 @@
       <c r="A440" t="s">
         <v>448</v>
       </c>
-      <c r="B440">
-        <v>1</v>
-      </c>
-      <c r="C440">
+      <c r="B440" s="2">
+        <v>1</v>
+      </c>
+      <c r="C440" s="2">
         <v>1</v>
       </c>
       <c r="D440" t="s">
@@ -10177,10 +10181,10 @@
       <c r="A441" t="s">
         <v>449</v>
       </c>
-      <c r="B441">
-        <v>1</v>
-      </c>
-      <c r="C441">
+      <c r="B441" s="2">
+        <v>1</v>
+      </c>
+      <c r="C441" s="2">
         <v>1</v>
       </c>
       <c r="D441" t="s">
@@ -10194,10 +10198,10 @@
       <c r="A442" t="s">
         <v>450</v>
       </c>
-      <c r="B442">
-        <v>1</v>
-      </c>
-      <c r="C442">
+      <c r="B442" s="2">
+        <v>1</v>
+      </c>
+      <c r="C442" s="2">
         <v>1</v>
       </c>
       <c r="D442" t="s">
@@ -10211,10 +10215,10 @@
       <c r="A443" t="s">
         <v>451</v>
       </c>
-      <c r="B443">
-        <v>1</v>
-      </c>
-      <c r="C443">
+      <c r="B443" s="2">
+        <v>1</v>
+      </c>
+      <c r="C443" s="2">
         <v>1</v>
       </c>
       <c r="D443" t="s">
@@ -10228,10 +10232,10 @@
       <c r="A444" t="s">
         <v>452</v>
       </c>
-      <c r="B444">
-        <v>1</v>
-      </c>
-      <c r="C444">
+      <c r="B444" s="2">
+        <v>1</v>
+      </c>
+      <c r="C444" s="2">
         <v>1</v>
       </c>
       <c r="D444" t="s">
@@ -10245,10 +10249,10 @@
       <c r="A445" t="s">
         <v>453</v>
       </c>
-      <c r="B445">
-        <v>1</v>
-      </c>
-      <c r="C445">
+      <c r="B445" s="2">
+        <v>1</v>
+      </c>
+      <c r="C445" s="2">
         <v>1</v>
       </c>
       <c r="D445" t="s">
@@ -10262,10 +10266,10 @@
       <c r="A446" t="s">
         <v>454</v>
       </c>
-      <c r="B446">
-        <v>1</v>
-      </c>
-      <c r="C446">
+      <c r="B446" s="2">
+        <v>1</v>
+      </c>
+      <c r="C446" s="2">
         <v>1</v>
       </c>
       <c r="D446" t="s">
@@ -10279,10 +10283,10 @@
       <c r="A447" t="s">
         <v>455</v>
       </c>
-      <c r="B447">
-        <v>1</v>
-      </c>
-      <c r="C447">
+      <c r="B447" s="2">
+        <v>1</v>
+      </c>
+      <c r="C447" s="2">
         <v>1</v>
       </c>
       <c r="D447" t="s">
@@ -10296,10 +10300,10 @@
       <c r="A448" t="s">
         <v>456</v>
       </c>
-      <c r="B448">
-        <v>1</v>
-      </c>
-      <c r="C448">
+      <c r="B448" s="2">
+        <v>1</v>
+      </c>
+      <c r="C448" s="2">
         <v>1</v>
       </c>
       <c r="D448" t="s">
@@ -10313,10 +10317,10 @@
       <c r="A449" t="s">
         <v>457</v>
       </c>
-      <c r="B449">
-        <v>1</v>
-      </c>
-      <c r="C449">
+      <c r="B449" s="2">
+        <v>1</v>
+      </c>
+      <c r="C449" s="2">
         <v>1</v>
       </c>
       <c r="D449" t="s">
@@ -10330,10 +10334,10 @@
       <c r="A450" t="s">
         <v>458</v>
       </c>
-      <c r="B450">
-        <v>1</v>
-      </c>
-      <c r="C450">
+      <c r="B450" s="2">
+        <v>1</v>
+      </c>
+      <c r="C450" s="2">
         <v>1</v>
       </c>
       <c r="D450" t="s">
@@ -10347,10 +10351,10 @@
       <c r="A451" t="s">
         <v>459</v>
       </c>
-      <c r="B451">
-        <v>1</v>
-      </c>
-      <c r="C451">
+      <c r="B451" s="2">
+        <v>1</v>
+      </c>
+      <c r="C451" s="2">
         <v>1</v>
       </c>
       <c r="D451" t="s">
@@ -10364,10 +10368,10 @@
       <c r="A452" t="s">
         <v>460</v>
       </c>
-      <c r="B452">
-        <v>1</v>
-      </c>
-      <c r="C452">
+      <c r="B452" s="2">
+        <v>1</v>
+      </c>
+      <c r="C452" s="2">
         <v>1</v>
       </c>
       <c r="D452" t="s">
@@ -10381,10 +10385,10 @@
       <c r="A453" t="s">
         <v>461</v>
       </c>
-      <c r="B453">
-        <v>1</v>
-      </c>
-      <c r="C453">
+      <c r="B453" s="2">
+        <v>1</v>
+      </c>
+      <c r="C453" s="2">
         <v>1</v>
       </c>
       <c r="D453" t="s">
@@ -10398,10 +10402,10 @@
       <c r="A454" t="s">
         <v>462</v>
       </c>
-      <c r="B454">
-        <v>1</v>
-      </c>
-      <c r="C454">
+      <c r="B454" s="2">
+        <v>1</v>
+      </c>
+      <c r="C454" s="2">
         <v>1</v>
       </c>
       <c r="D454" t="s">
@@ -10415,10 +10419,10 @@
       <c r="A455" t="s">
         <v>463</v>
       </c>
-      <c r="B455">
-        <v>1</v>
-      </c>
-      <c r="C455">
+      <c r="B455" s="2">
+        <v>1</v>
+      </c>
+      <c r="C455" s="2">
         <v>1</v>
       </c>
       <c r="D455" t="s">
@@ -10432,10 +10436,10 @@
       <c r="A456" t="s">
         <v>464</v>
       </c>
-      <c r="B456">
-        <v>1</v>
-      </c>
-      <c r="C456">
+      <c r="B456" s="2">
+        <v>1</v>
+      </c>
+      <c r="C456" s="2">
         <v>1</v>
       </c>
       <c r="D456" t="s">
@@ -10449,10 +10453,10 @@
       <c r="A457" t="s">
         <v>465</v>
       </c>
-      <c r="B457">
-        <v>1</v>
-      </c>
-      <c r="C457">
+      <c r="B457" s="2">
+        <v>1</v>
+      </c>
+      <c r="C457" s="2">
         <v>1</v>
       </c>
       <c r="D457" t="s">
@@ -10466,10 +10470,10 @@
       <c r="A458" t="s">
         <v>466</v>
       </c>
-      <c r="B458">
-        <v>1</v>
-      </c>
-      <c r="C458">
+      <c r="B458" s="2">
+        <v>1</v>
+      </c>
+      <c r="C458" s="2">
         <v>1</v>
       </c>
       <c r="D458" t="s">
@@ -10483,10 +10487,10 @@
       <c r="A459" t="s">
         <v>467</v>
       </c>
-      <c r="B459">
-        <v>1</v>
-      </c>
-      <c r="C459">
+      <c r="B459" s="2">
+        <v>1</v>
+      </c>
+      <c r="C459" s="2">
         <v>1</v>
       </c>
       <c r="D459" t="s">
@@ -10500,10 +10504,10 @@
       <c r="A460" t="s">
         <v>468</v>
       </c>
-      <c r="B460">
-        <v>1</v>
-      </c>
-      <c r="C460">
+      <c r="B460" s="2">
+        <v>1</v>
+      </c>
+      <c r="C460" s="2">
         <v>1</v>
       </c>
       <c r="D460" t="s">
@@ -10517,10 +10521,10 @@
       <c r="A461" t="s">
         <v>469</v>
       </c>
-      <c r="B461">
-        <v>1</v>
-      </c>
-      <c r="C461">
+      <c r="B461" s="2">
+        <v>1</v>
+      </c>
+      <c r="C461" s="2">
         <v>1</v>
       </c>
       <c r="D461" t="s">
@@ -10534,10 +10538,10 @@
       <c r="A462" t="s">
         <v>470</v>
       </c>
-      <c r="B462">
-        <v>1</v>
-      </c>
-      <c r="C462">
+      <c r="B462" s="2">
+        <v>1</v>
+      </c>
+      <c r="C462" s="2">
         <v>1</v>
       </c>
       <c r="D462" t="s">
@@ -10551,10 +10555,10 @@
       <c r="A463" t="s">
         <v>471</v>
       </c>
-      <c r="B463">
-        <v>1</v>
-      </c>
-      <c r="C463">
+      <c r="B463" s="2">
+        <v>1</v>
+      </c>
+      <c r="C463" s="2">
         <v>1</v>
       </c>
       <c r="D463" t="s">
@@ -10568,10 +10572,10 @@
       <c r="A464" t="s">
         <v>472</v>
       </c>
-      <c r="B464">
-        <v>1</v>
-      </c>
-      <c r="C464">
+      <c r="B464" s="2">
+        <v>1</v>
+      </c>
+      <c r="C464" s="2">
         <v>1</v>
       </c>
       <c r="D464" t="s">
@@ -10585,10 +10589,10 @@
       <c r="A465" t="s">
         <v>473</v>
       </c>
-      <c r="B465">
-        <v>1</v>
-      </c>
-      <c r="C465">
+      <c r="B465" s="2">
+        <v>1</v>
+      </c>
+      <c r="C465" s="2">
         <v>1</v>
       </c>
       <c r="D465" t="s">
@@ -10602,10 +10606,10 @@
       <c r="A466" t="s">
         <v>474</v>
       </c>
-      <c r="B466">
-        <v>1</v>
-      </c>
-      <c r="C466">
+      <c r="B466" s="2">
+        <v>1</v>
+      </c>
+      <c r="C466" s="2">
         <v>1</v>
       </c>
       <c r="D466" t="s">
@@ -10619,10 +10623,10 @@
       <c r="A467" t="s">
         <v>475</v>
       </c>
-      <c r="B467">
-        <v>1</v>
-      </c>
-      <c r="C467">
+      <c r="B467" s="2">
+        <v>1</v>
+      </c>
+      <c r="C467" s="2">
         <v>1</v>
       </c>
       <c r="D467" t="s">
@@ -10636,10 +10640,10 @@
       <c r="A468" t="s">
         <v>476</v>
       </c>
-      <c r="B468">
-        <v>1</v>
-      </c>
-      <c r="C468">
+      <c r="B468" s="2">
+        <v>1</v>
+      </c>
+      <c r="C468" s="2">
         <v>1</v>
       </c>
       <c r="D468" t="s">
@@ -10653,10 +10657,10 @@
       <c r="A469" t="s">
         <v>477</v>
       </c>
-      <c r="B469">
-        <v>1</v>
-      </c>
-      <c r="C469">
+      <c r="B469" s="2">
+        <v>1</v>
+      </c>
+      <c r="C469" s="2">
         <v>1</v>
       </c>
       <c r="D469" t="s">
@@ -10670,10 +10674,10 @@
       <c r="A470" t="s">
         <v>478</v>
       </c>
-      <c r="B470">
-        <v>1</v>
-      </c>
-      <c r="C470">
+      <c r="B470" s="2">
+        <v>1</v>
+      </c>
+      <c r="C470" s="2">
         <v>1</v>
       </c>
       <c r="D470" t="s">
@@ -10687,10 +10691,10 @@
       <c r="A471" t="s">
         <v>479</v>
       </c>
-      <c r="B471">
-        <v>1</v>
-      </c>
-      <c r="C471">
+      <c r="B471" s="2">
+        <v>1</v>
+      </c>
+      <c r="C471" s="2">
         <v>1</v>
       </c>
       <c r="D471" t="s">
@@ -10704,10 +10708,10 @@
       <c r="A472" t="s">
         <v>480</v>
       </c>
-      <c r="B472">
-        <v>1</v>
-      </c>
-      <c r="C472">
+      <c r="B472" s="2">
+        <v>1</v>
+      </c>
+      <c r="C472" s="2">
         <v>1</v>
       </c>
       <c r="D472" t="s">
@@ -10721,10 +10725,10 @@
       <c r="A473" t="s">
         <v>481</v>
       </c>
-      <c r="B473">
-        <v>1</v>
-      </c>
-      <c r="C473">
+      <c r="B473" s="2">
+        <v>1</v>
+      </c>
+      <c r="C473" s="2">
         <v>1</v>
       </c>
       <c r="D473" t="s">
@@ -10738,10 +10742,10 @@
       <c r="A474" t="s">
         <v>482</v>
       </c>
-      <c r="B474">
-        <v>1</v>
-      </c>
-      <c r="C474">
+      <c r="B474" s="2">
+        <v>1</v>
+      </c>
+      <c r="C474" s="2">
         <v>1</v>
       </c>
       <c r="D474" t="s">
@@ -10755,10 +10759,10 @@
       <c r="A475" t="s">
         <v>483</v>
       </c>
-      <c r="B475">
-        <v>1</v>
-      </c>
-      <c r="C475">
+      <c r="B475" s="2">
+        <v>1</v>
+      </c>
+      <c r="C475" s="2">
         <v>1</v>
       </c>
       <c r="D475" t="s">
@@ -10772,10 +10776,10 @@
       <c r="A476" t="s">
         <v>484</v>
       </c>
-      <c r="B476">
-        <v>1</v>
-      </c>
-      <c r="C476">
+      <c r="B476" s="2">
+        <v>1</v>
+      </c>
+      <c r="C476" s="2">
         <v>1</v>
       </c>
       <c r="D476" t="s">
@@ -10789,10 +10793,10 @@
       <c r="A477" t="s">
         <v>485</v>
       </c>
-      <c r="B477">
-        <v>1</v>
-      </c>
-      <c r="C477">
+      <c r="B477" s="2">
+        <v>1</v>
+      </c>
+      <c r="C477" s="2">
         <v>1</v>
       </c>
       <c r="D477" t="s">
@@ -10806,10 +10810,10 @@
       <c r="A478" t="s">
         <v>486</v>
       </c>
-      <c r="B478">
-        <v>1</v>
-      </c>
-      <c r="C478">
+      <c r="B478" s="2">
+        <v>1</v>
+      </c>
+      <c r="C478" s="2">
         <v>1</v>
       </c>
       <c r="D478" t="s">
@@ -10823,10 +10827,10 @@
       <c r="A479" t="s">
         <v>487</v>
       </c>
-      <c r="B479">
-        <v>1</v>
-      </c>
-      <c r="C479">
+      <c r="B479" s="2">
+        <v>1</v>
+      </c>
+      <c r="C479" s="2">
         <v>1</v>
       </c>
       <c r="D479" t="s">
@@ -10840,10 +10844,10 @@
       <c r="A480" t="s">
         <v>488</v>
       </c>
-      <c r="B480">
-        <v>1</v>
-      </c>
-      <c r="C480">
+      <c r="B480" s="2">
+        <v>1</v>
+      </c>
+      <c r="C480" s="2">
         <v>1</v>
       </c>
       <c r="D480" t="s">
@@ -10857,10 +10861,10 @@
       <c r="A481" t="s">
         <v>489</v>
       </c>
-      <c r="B481">
-        <v>1</v>
-      </c>
-      <c r="C481">
+      <c r="B481" s="2">
+        <v>1</v>
+      </c>
+      <c r="C481" s="2">
         <v>1</v>
       </c>
       <c r="D481" t="s">
@@ -10874,10 +10878,10 @@
       <c r="A482" t="s">
         <v>490</v>
       </c>
-      <c r="B482">
-        <v>1</v>
-      </c>
-      <c r="C482">
+      <c r="B482" s="2">
+        <v>1</v>
+      </c>
+      <c r="C482" s="2">
         <v>1</v>
       </c>
       <c r="D482" t="s">
@@ -10891,10 +10895,10 @@
       <c r="A483" t="s">
         <v>491</v>
       </c>
-      <c r="B483">
-        <v>1</v>
-      </c>
-      <c r="C483">
+      <c r="B483" s="2">
+        <v>1</v>
+      </c>
+      <c r="C483" s="2">
         <v>1</v>
       </c>
       <c r="D483" t="s">
@@ -10908,10 +10912,10 @@
       <c r="A484" t="s">
         <v>492</v>
       </c>
-      <c r="B484">
-        <v>1</v>
-      </c>
-      <c r="C484">
+      <c r="B484" s="2">
+        <v>1</v>
+      </c>
+      <c r="C484" s="2">
         <v>1</v>
       </c>
       <c r="D484" t="s">
@@ -10925,10 +10929,10 @@
       <c r="A485" t="s">
         <v>493</v>
       </c>
-      <c r="B485">
-        <v>1</v>
-      </c>
-      <c r="C485">
+      <c r="B485" s="2">
+        <v>1</v>
+      </c>
+      <c r="C485" s="2">
         <v>1</v>
       </c>
       <c r="D485" t="s">
@@ -10942,10 +10946,10 @@
       <c r="A486" t="s">
         <v>494</v>
       </c>
-      <c r="B486">
-        <v>1</v>
-      </c>
-      <c r="C486">
+      <c r="B486" s="2">
+        <v>1</v>
+      </c>
+      <c r="C486" s="2">
         <v>1</v>
       </c>
       <c r="D486" t="s">
@@ -10959,10 +10963,10 @@
       <c r="A487" t="s">
         <v>495</v>
       </c>
-      <c r="B487">
-        <v>1</v>
-      </c>
-      <c r="C487">
+      <c r="B487" s="2">
+        <v>1</v>
+      </c>
+      <c r="C487" s="2">
         <v>1</v>
       </c>
       <c r="D487" t="s">
@@ -10976,10 +10980,10 @@
       <c r="A488" t="s">
         <v>496</v>
       </c>
-      <c r="B488">
-        <v>1</v>
-      </c>
-      <c r="C488">
+      <c r="B488" s="2">
+        <v>1</v>
+      </c>
+      <c r="C488" s="2">
         <v>1</v>
       </c>
       <c r="D488" t="s">
@@ -10993,10 +10997,10 @@
       <c r="A489" t="s">
         <v>497</v>
       </c>
-      <c r="B489">
-        <v>1</v>
-      </c>
-      <c r="C489">
+      <c r="B489" s="2">
+        <v>1</v>
+      </c>
+      <c r="C489" s="2">
         <v>1</v>
       </c>
       <c r="D489" t="s">
@@ -11010,10 +11014,10 @@
       <c r="A490" t="s">
         <v>498</v>
       </c>
-      <c r="B490">
-        <v>1</v>
-      </c>
-      <c r="C490">
+      <c r="B490" s="2">
+        <v>1</v>
+      </c>
+      <c r="C490" s="2">
         <v>1</v>
       </c>
       <c r="D490" t="s">
@@ -11027,10 +11031,10 @@
       <c r="A491" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B491">
-        <v>1</v>
-      </c>
-      <c r="C491">
+      <c r="B491" s="2">
+        <v>1</v>
+      </c>
+      <c r="C491" s="2">
         <v>1</v>
       </c>
       <c r="D491" t="s">
@@ -11044,10 +11048,10 @@
       <c r="A492" t="s">
         <v>500</v>
       </c>
-      <c r="B492">
-        <v>1</v>
-      </c>
-      <c r="C492">
+      <c r="B492" s="2">
+        <v>1</v>
+      </c>
+      <c r="C492" s="2">
         <v>1</v>
       </c>
       <c r="D492" t="s">
@@ -11061,10 +11065,10 @@
       <c r="A493" t="s">
         <v>501</v>
       </c>
-      <c r="B493">
-        <v>1</v>
-      </c>
-      <c r="C493">
+      <c r="B493" s="2">
+        <v>1</v>
+      </c>
+      <c r="C493" s="2">
         <v>1</v>
       </c>
       <c r="D493" t="s">
@@ -11078,10 +11082,10 @@
       <c r="A494" t="s">
         <v>502</v>
       </c>
-      <c r="B494">
-        <v>1</v>
-      </c>
-      <c r="C494">
+      <c r="B494" s="2">
+        <v>1</v>
+      </c>
+      <c r="C494" s="2">
         <v>1</v>
       </c>
       <c r="D494" t="s">
@@ -11095,10 +11099,10 @@
       <c r="A495" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B495">
-        <v>1</v>
-      </c>
-      <c r="C495">
+      <c r="B495" s="2">
+        <v>1</v>
+      </c>
+      <c r="C495" s="2">
         <v>1</v>
       </c>
       <c r="D495" t="s">
@@ -11112,10 +11116,10 @@
       <c r="A496" t="s">
         <v>504</v>
       </c>
-      <c r="B496">
-        <v>1</v>
-      </c>
-      <c r="C496">
+      <c r="B496" s="2">
+        <v>1</v>
+      </c>
+      <c r="C496" s="2">
         <v>1</v>
       </c>
       <c r="D496" t="s">
@@ -11129,10 +11133,10 @@
       <c r="A497" t="s">
         <v>505</v>
       </c>
-      <c r="B497">
-        <v>1</v>
-      </c>
-      <c r="C497">
+      <c r="B497" s="2">
+        <v>1</v>
+      </c>
+      <c r="C497" s="2">
         <v>1</v>
       </c>
       <c r="D497" t="s">
@@ -11146,10 +11150,10 @@
       <c r="A498" t="s">
         <v>506</v>
       </c>
-      <c r="B498">
-        <v>1</v>
-      </c>
-      <c r="C498">
+      <c r="B498" s="2">
+        <v>1</v>
+      </c>
+      <c r="C498" s="2">
         <v>1</v>
       </c>
       <c r="D498" t="s">
@@ -11163,10 +11167,10 @@
       <c r="A499" t="s">
         <v>507</v>
       </c>
-      <c r="B499">
-        <v>1</v>
-      </c>
-      <c r="C499">
+      <c r="B499" s="2">
+        <v>1</v>
+      </c>
+      <c r="C499" s="2">
         <v>1</v>
       </c>
       <c r="D499" t="s">
@@ -11180,10 +11184,10 @@
       <c r="A500" t="s">
         <v>508</v>
       </c>
-      <c r="B500">
-        <v>1</v>
-      </c>
-      <c r="C500">
+      <c r="B500" s="2">
+        <v>1</v>
+      </c>
+      <c r="C500" s="2">
         <v>1</v>
       </c>
       <c r="D500" t="s">
@@ -11197,10 +11201,10 @@
       <c r="A501" t="s">
         <v>509</v>
       </c>
-      <c r="B501">
-        <v>1</v>
-      </c>
-      <c r="C501">
+      <c r="B501" s="2">
+        <v>1</v>
+      </c>
+      <c r="C501" s="2">
         <v>1</v>
       </c>
       <c r="D501" t="s">
@@ -11214,10 +11218,10 @@
       <c r="A502" t="s">
         <v>510</v>
       </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-      <c r="C502">
+      <c r="B502" s="2">
+        <v>1</v>
+      </c>
+      <c r="C502" s="2">
         <v>1</v>
       </c>
       <c r="D502" t="s">
@@ -11231,10 +11235,10 @@
       <c r="A503" t="s">
         <v>511</v>
       </c>
-      <c r="B503">
-        <v>1</v>
-      </c>
-      <c r="C503">
+      <c r="B503" s="2">
+        <v>1</v>
+      </c>
+      <c r="C503" s="2">
         <v>1</v>
       </c>
       <c r="D503" t="s">
@@ -11248,10 +11252,10 @@
       <c r="A504" t="s">
         <v>512</v>
       </c>
-      <c r="B504">
-        <v>1</v>
-      </c>
-      <c r="C504">
+      <c r="B504" s="2">
+        <v>1</v>
+      </c>
+      <c r="C504" s="2">
         <v>1</v>
       </c>
       <c r="D504" t="s">
@@ -11265,10 +11269,10 @@
       <c r="A505" t="s">
         <v>513</v>
       </c>
-      <c r="B505">
-        <v>1</v>
-      </c>
-      <c r="C505">
+      <c r="B505" s="2">
+        <v>1</v>
+      </c>
+      <c r="C505" s="2">
         <v>1</v>
       </c>
       <c r="D505" t="s">
@@ -11282,10 +11286,10 @@
       <c r="A506" t="s">
         <v>514</v>
       </c>
-      <c r="B506">
-        <v>1</v>
-      </c>
-      <c r="C506">
+      <c r="B506" s="2">
+        <v>1</v>
+      </c>
+      <c r="C506" s="2">
         <v>1</v>
       </c>
       <c r="D506" t="s">
@@ -11299,10 +11303,10 @@
       <c r="A507" t="s">
         <v>515</v>
       </c>
-      <c r="B507">
-        <v>1</v>
-      </c>
-      <c r="C507">
+      <c r="B507" s="2">
+        <v>1</v>
+      </c>
+      <c r="C507" s="2">
         <v>1</v>
       </c>
       <c r="D507" t="s">
@@ -11316,10 +11320,10 @@
       <c r="A508" t="s">
         <v>516</v>
       </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-      <c r="C508">
+      <c r="B508" s="2">
+        <v>1</v>
+      </c>
+      <c r="C508" s="2">
         <v>1</v>
       </c>
       <c r="D508" t="s">
@@ -11333,10 +11337,10 @@
       <c r="A509" t="s">
         <v>517</v>
       </c>
-      <c r="B509">
-        <v>1</v>
-      </c>
-      <c r="C509">
+      <c r="B509" s="2">
+        <v>1</v>
+      </c>
+      <c r="C509" s="2">
         <v>1</v>
       </c>
       <c r="D509" t="s">
@@ -11350,10 +11354,10 @@
       <c r="A510" t="s">
         <v>518</v>
       </c>
-      <c r="B510">
-        <v>1</v>
-      </c>
-      <c r="C510">
+      <c r="B510" s="2">
+        <v>1</v>
+      </c>
+      <c r="C510" s="2">
         <v>1</v>
       </c>
       <c r="D510" t="s">
@@ -11367,10 +11371,10 @@
       <c r="A511" t="s">
         <v>519</v>
       </c>
-      <c r="B511">
-        <v>1</v>
-      </c>
-      <c r="C511">
+      <c r="B511" s="2">
+        <v>1</v>
+      </c>
+      <c r="C511" s="2">
         <v>1</v>
       </c>
       <c r="D511" t="s">
@@ -11384,10 +11388,10 @@
       <c r="A512" t="s">
         <v>520</v>
       </c>
-      <c r="B512">
-        <v>1</v>
-      </c>
-      <c r="C512">
+      <c r="B512" s="2">
+        <v>1</v>
+      </c>
+      <c r="C512" s="2">
         <v>1</v>
       </c>
       <c r="D512" t="s">
@@ -11401,10 +11405,10 @@
       <c r="A513" t="s">
         <v>521</v>
       </c>
-      <c r="B513">
-        <v>1</v>
-      </c>
-      <c r="C513">
+      <c r="B513" s="2">
+        <v>1</v>
+      </c>
+      <c r="C513" s="2">
         <v>1</v>
       </c>
       <c r="D513" t="s">
@@ -11418,10 +11422,10 @@
       <c r="A514" t="s">
         <v>522</v>
       </c>
-      <c r="B514">
-        <v>1</v>
-      </c>
-      <c r="C514">
+      <c r="B514" s="2">
+        <v>1</v>
+      </c>
+      <c r="C514" s="2">
         <v>1</v>
       </c>
       <c r="D514" t="s">
@@ -11435,10 +11439,10 @@
       <c r="A515" t="s">
         <v>523</v>
       </c>
-      <c r="B515">
-        <v>1</v>
-      </c>
-      <c r="C515">
+      <c r="B515" s="2">
+        <v>1</v>
+      </c>
+      <c r="C515" s="2">
         <v>1</v>
       </c>
       <c r="D515" t="s">
@@ -11452,10 +11456,10 @@
       <c r="A516" t="s">
         <v>524</v>
       </c>
-      <c r="B516">
-        <v>1</v>
-      </c>
-      <c r="C516">
+      <c r="B516" s="2">
+        <v>1</v>
+      </c>
+      <c r="C516" s="2">
         <v>1</v>
       </c>
       <c r="D516" t="s">
@@ -11469,10 +11473,10 @@
       <c r="A517" t="s">
         <v>525</v>
       </c>
-      <c r="B517">
-        <v>1</v>
-      </c>
-      <c r="C517">
+      <c r="B517" s="2">
+        <v>1</v>
+      </c>
+      <c r="C517" s="2">
         <v>1</v>
       </c>
       <c r="D517" t="s">
@@ -11486,10 +11490,10 @@
       <c r="A518" t="s">
         <v>526</v>
       </c>
-      <c r="B518">
-        <v>1</v>
-      </c>
-      <c r="C518">
+      <c r="B518" s="2">
+        <v>1</v>
+      </c>
+      <c r="C518" s="2">
         <v>1</v>
       </c>
       <c r="D518" t="s">
@@ -11503,10 +11507,10 @@
       <c r="A519" t="s">
         <v>527</v>
       </c>
-      <c r="B519">
-        <v>1</v>
-      </c>
-      <c r="C519">
+      <c r="B519" s="2">
+        <v>1</v>
+      </c>
+      <c r="C519" s="2">
         <v>1</v>
       </c>
       <c r="D519" t="s">
@@ -11520,10 +11524,10 @@
       <c r="A520" t="s">
         <v>528</v>
       </c>
-      <c r="B520">
-        <v>1</v>
-      </c>
-      <c r="C520">
+      <c r="B520" s="2">
+        <v>1</v>
+      </c>
+      <c r="C520" s="2">
         <v>1</v>
       </c>
       <c r="D520" t="s">
@@ -11537,10 +11541,10 @@
       <c r="A521" t="s">
         <v>529</v>
       </c>
-      <c r="B521">
-        <v>1</v>
-      </c>
-      <c r="C521">
+      <c r="B521" s="2">
+        <v>1</v>
+      </c>
+      <c r="C521" s="2">
         <v>1</v>
       </c>
       <c r="D521" t="s">
@@ -11554,10 +11558,10 @@
       <c r="A522" t="s">
         <v>530</v>
       </c>
-      <c r="B522">
-        <v>1</v>
-      </c>
-      <c r="C522">
+      <c r="B522" s="2">
+        <v>1</v>
+      </c>
+      <c r="C522" s="2">
         <v>1</v>
       </c>
       <c r="D522" t="s">
@@ -11571,10 +11575,10 @@
       <c r="A523" t="s">
         <v>531</v>
       </c>
-      <c r="B523">
-        <v>1</v>
-      </c>
-      <c r="C523">
+      <c r="B523" s="2">
+        <v>1</v>
+      </c>
+      <c r="C523" s="2">
         <v>1</v>
       </c>
       <c r="D523" t="s">
@@ -11588,10 +11592,10 @@
       <c r="A524" t="s">
         <v>532</v>
       </c>
-      <c r="B524">
-        <v>1</v>
-      </c>
-      <c r="C524">
+      <c r="B524" s="2">
+        <v>1</v>
+      </c>
+      <c r="C524" s="2">
         <v>1</v>
       </c>
       <c r="D524" t="s">
@@ -11605,10 +11609,10 @@
       <c r="A525" t="s">
         <v>533</v>
       </c>
-      <c r="B525">
-        <v>1</v>
-      </c>
-      <c r="C525">
+      <c r="B525" s="2">
+        <v>1</v>
+      </c>
+      <c r="C525" s="2">
         <v>1</v>
       </c>
       <c r="D525" t="s">
@@ -11622,10 +11626,10 @@
       <c r="A526" t="s">
         <v>534</v>
       </c>
-      <c r="B526">
-        <v>1</v>
-      </c>
-      <c r="C526">
+      <c r="B526" s="2">
+        <v>1</v>
+      </c>
+      <c r="C526" s="2">
         <v>1</v>
       </c>
       <c r="D526" t="s">
@@ -11639,10 +11643,10 @@
       <c r="A527" t="s">
         <v>535</v>
       </c>
-      <c r="B527">
-        <v>1</v>
-      </c>
-      <c r="C527">
+      <c r="B527" s="2">
+        <v>1</v>
+      </c>
+      <c r="C527" s="2">
         <v>1</v>
       </c>
       <c r="D527" t="s">
@@ -11656,10 +11660,10 @@
       <c r="A528" t="s">
         <v>536</v>
       </c>
-      <c r="B528">
-        <v>1</v>
-      </c>
-      <c r="C528">
+      <c r="B528" s="2">
+        <v>1</v>
+      </c>
+      <c r="C528" s="2">
         <v>1</v>
       </c>
       <c r="D528" t="s">
@@ -11673,10 +11677,10 @@
       <c r="A529" t="s">
         <v>537</v>
       </c>
-      <c r="B529">
-        <v>1</v>
-      </c>
-      <c r="C529">
+      <c r="B529" s="2">
+        <v>1</v>
+      </c>
+      <c r="C529" s="2">
         <v>1</v>
       </c>
       <c r="D529" t="s">
@@ -11690,10 +11694,10 @@
       <c r="A530" t="s">
         <v>538</v>
       </c>
-      <c r="B530">
-        <v>1</v>
-      </c>
-      <c r="C530">
+      <c r="B530" s="2">
+        <v>1</v>
+      </c>
+      <c r="C530" s="2">
         <v>1</v>
       </c>
       <c r="D530" t="s">
@@ -11707,10 +11711,10 @@
       <c r="A531" t="s">
         <v>539</v>
       </c>
-      <c r="B531">
-        <v>1</v>
-      </c>
-      <c r="C531">
+      <c r="B531" s="2">
+        <v>1</v>
+      </c>
+      <c r="C531" s="2">
         <v>1</v>
       </c>
       <c r="D531" t="s">
@@ -11724,10 +11728,10 @@
       <c r="A532" t="s">
         <v>540</v>
       </c>
-      <c r="B532">
-        <v>1</v>
-      </c>
-      <c r="C532">
+      <c r="B532" s="2">
+        <v>1</v>
+      </c>
+      <c r="C532" s="2">
         <v>1</v>
       </c>
       <c r="D532" t="s">
@@ -11741,10 +11745,10 @@
       <c r="A533" t="s">
         <v>541</v>
       </c>
-      <c r="B533">
-        <v>1</v>
-      </c>
-      <c r="C533">
+      <c r="B533" s="2">
+        <v>1</v>
+      </c>
+      <c r="C533" s="2">
         <v>1</v>
       </c>
       <c r="D533" t="s">
@@ -11758,10 +11762,10 @@
       <c r="A534" t="s">
         <v>542</v>
       </c>
-      <c r="B534">
-        <v>1</v>
-      </c>
-      <c r="C534">
+      <c r="B534" s="2">
+        <v>1</v>
+      </c>
+      <c r="C534" s="2">
         <v>1</v>
       </c>
       <c r="D534" t="s">
@@ -11775,10 +11779,10 @@
       <c r="A535" t="s">
         <v>543</v>
       </c>
-      <c r="B535">
-        <v>1</v>
-      </c>
-      <c r="C535">
+      <c r="B535" s="2">
+        <v>1</v>
+      </c>
+      <c r="C535" s="2">
         <v>1</v>
       </c>
       <c r="D535" t="s">
@@ -11792,10 +11796,10 @@
       <c r="A536" t="s">
         <v>544</v>
       </c>
-      <c r="B536">
-        <v>1</v>
-      </c>
-      <c r="C536">
+      <c r="B536" s="2">
+        <v>1</v>
+      </c>
+      <c r="C536" s="2">
         <v>1</v>
       </c>
       <c r="D536" t="s">
@@ -11809,10 +11813,10 @@
       <c r="A537" t="s">
         <v>545</v>
       </c>
-      <c r="B537">
-        <v>1</v>
-      </c>
-      <c r="C537">
+      <c r="B537" s="2">
+        <v>1</v>
+      </c>
+      <c r="C537" s="2">
         <v>1</v>
       </c>
       <c r="D537" t="s">
@@ -11826,10 +11830,10 @@
       <c r="A538" t="s">
         <v>546</v>
       </c>
-      <c r="B538">
-        <v>1</v>
-      </c>
-      <c r="C538">
+      <c r="B538" s="2">
+        <v>1</v>
+      </c>
+      <c r="C538" s="2">
         <v>1</v>
       </c>
       <c r="D538" t="s">
@@ -11843,10 +11847,10 @@
       <c r="A539" t="s">
         <v>547</v>
       </c>
-      <c r="B539">
-        <v>1</v>
-      </c>
-      <c r="C539">
+      <c r="B539" s="2">
+        <v>1</v>
+      </c>
+      <c r="C539" s="2">
         <v>1</v>
       </c>
       <c r="D539" t="s">
@@ -11860,10 +11864,10 @@
       <c r="A540" t="s">
         <v>548</v>
       </c>
-      <c r="B540">
-        <v>1</v>
-      </c>
-      <c r="C540">
+      <c r="B540" s="2">
+        <v>1</v>
+      </c>
+      <c r="C540" s="2">
         <v>1</v>
       </c>
       <c r="D540" t="s">
@@ -11877,10 +11881,10 @@
       <c r="A541" t="s">
         <v>549</v>
       </c>
-      <c r="B541">
-        <v>1</v>
-      </c>
-      <c r="C541">
+      <c r="B541" s="2">
+        <v>1</v>
+      </c>
+      <c r="C541" s="2">
         <v>1</v>
       </c>
       <c r="D541" t="s">
@@ -11894,10 +11898,10 @@
       <c r="A542" t="s">
         <v>550</v>
       </c>
-      <c r="B542">
-        <v>1</v>
-      </c>
-      <c r="C542">
+      <c r="B542" s="2">
+        <v>1</v>
+      </c>
+      <c r="C542" s="2">
         <v>1</v>
       </c>
       <c r="D542" t="s">
@@ -11911,10 +11915,10 @@
       <c r="A543" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B543">
-        <v>1</v>
-      </c>
-      <c r="C543">
+      <c r="B543" s="2">
+        <v>1</v>
+      </c>
+      <c r="C543" s="2">
         <v>1</v>
       </c>
       <c r="D543" t="s">
@@ -11928,10 +11932,10 @@
       <c r="A544" t="s">
         <v>552</v>
       </c>
-      <c r="B544">
-        <v>1</v>
-      </c>
-      <c r="C544">
+      <c r="B544" s="2">
+        <v>1</v>
+      </c>
+      <c r="C544" s="2">
         <v>1</v>
       </c>
       <c r="D544" t="s">
@@ -11945,10 +11949,10 @@
       <c r="A545" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B545">
-        <v>1</v>
-      </c>
-      <c r="C545">
+      <c r="B545" s="2">
+        <v>1</v>
+      </c>
+      <c r="C545" s="2">
         <v>1</v>
       </c>
       <c r="D545" t="s">
@@ -11962,10 +11966,10 @@
       <c r="A546" t="s">
         <v>554</v>
       </c>
-      <c r="B546">
-        <v>1</v>
-      </c>
-      <c r="C546">
+      <c r="B546" s="2">
+        <v>1</v>
+      </c>
+      <c r="C546" s="2">
         <v>1</v>
       </c>
       <c r="D546" t="s">
@@ -11979,10 +11983,10 @@
       <c r="A547" t="s">
         <v>555</v>
       </c>
-      <c r="B547">
-        <v>1</v>
-      </c>
-      <c r="C547">
+      <c r="B547" s="2">
+        <v>1</v>
+      </c>
+      <c r="C547" s="2">
         <v>1</v>
       </c>
       <c r="D547" t="s">
@@ -11996,10 +12000,10 @@
       <c r="A548" t="s">
         <v>556</v>
       </c>
-      <c r="B548">
-        <v>1</v>
-      </c>
-      <c r="C548">
+      <c r="B548" s="2">
+        <v>1</v>
+      </c>
+      <c r="C548" s="2">
         <v>1</v>
       </c>
       <c r="D548" t="s">
@@ -12013,10 +12017,10 @@
       <c r="A549" t="s">
         <v>557</v>
       </c>
-      <c r="B549">
-        <v>1</v>
-      </c>
-      <c r="C549">
+      <c r="B549" s="2">
+        <v>1</v>
+      </c>
+      <c r="C549" s="2">
         <v>1</v>
       </c>
       <c r="D549" t="s">
@@ -12030,10 +12034,10 @@
       <c r="A550" t="s">
         <v>558</v>
       </c>
-      <c r="B550">
-        <v>1</v>
-      </c>
-      <c r="C550">
+      <c r="B550" s="2">
+        <v>1</v>
+      </c>
+      <c r="C550" s="2">
         <v>1</v>
       </c>
       <c r="D550" t="s">
@@ -12047,10 +12051,10 @@
       <c r="A551" t="s">
         <v>559</v>
       </c>
-      <c r="B551">
-        <v>1</v>
-      </c>
-      <c r="C551">
+      <c r="B551" s="2">
+        <v>1</v>
+      </c>
+      <c r="C551" s="2">
         <v>1</v>
       </c>
       <c r="D551" t="s">
@@ -12064,10 +12068,10 @@
       <c r="A552" t="s">
         <v>560</v>
       </c>
-      <c r="B552">
-        <v>1</v>
-      </c>
-      <c r="C552">
+      <c r="B552" s="2">
+        <v>1</v>
+      </c>
+      <c r="C552" s="2">
         <v>1</v>
       </c>
       <c r="D552" t="s">
@@ -12081,10 +12085,10 @@
       <c r="A553" t="s">
         <v>561</v>
       </c>
-      <c r="B553">
-        <v>1</v>
-      </c>
-      <c r="C553">
+      <c r="B553" s="2">
+        <v>1</v>
+      </c>
+      <c r="C553" s="2">
         <v>1</v>
       </c>
       <c r="D553" t="s">
@@ -12098,10 +12102,10 @@
       <c r="A554" t="s">
         <v>562</v>
       </c>
-      <c r="B554">
-        <v>1</v>
-      </c>
-      <c r="C554">
+      <c r="B554" s="2">
+        <v>1</v>
+      </c>
+      <c r="C554" s="2">
         <v>1</v>
       </c>
       <c r="D554" t="s">
@@ -12115,10 +12119,10 @@
       <c r="A555" t="s">
         <v>563</v>
       </c>
-      <c r="B555">
-        <v>1</v>
-      </c>
-      <c r="C555">
+      <c r="B555" s="2">
+        <v>1</v>
+      </c>
+      <c r="C555" s="2">
         <v>1</v>
       </c>
       <c r="D555" t="s">
@@ -12132,10 +12136,10 @@
       <c r="A556" t="s">
         <v>564</v>
       </c>
-      <c r="B556">
-        <v>1</v>
-      </c>
-      <c r="C556">
+      <c r="B556" s="2">
+        <v>1</v>
+      </c>
+      <c r="C556" s="2">
         <v>1</v>
       </c>
       <c r="D556" t="s">
@@ -12149,10 +12153,10 @@
       <c r="A557" t="s">
         <v>565</v>
       </c>
-      <c r="B557">
-        <v>1</v>
-      </c>
-      <c r="C557">
+      <c r="B557" s="2">
+        <v>1</v>
+      </c>
+      <c r="C557" s="2">
         <v>1</v>
       </c>
       <c r="D557" t="s">
@@ -12166,10 +12170,10 @@
       <c r="A558" t="s">
         <v>566</v>
       </c>
-      <c r="B558">
-        <v>1</v>
-      </c>
-      <c r="C558">
+      <c r="B558" s="2">
+        <v>1</v>
+      </c>
+      <c r="C558" s="2">
         <v>1</v>
       </c>
       <c r="D558" t="s">
@@ -12183,10 +12187,10 @@
       <c r="A559" t="s">
         <v>567</v>
       </c>
-      <c r="B559">
-        <v>1</v>
-      </c>
-      <c r="C559">
+      <c r="B559" s="2">
+        <v>1</v>
+      </c>
+      <c r="C559" s="2">
         <v>1</v>
       </c>
       <c r="D559" t="s">
@@ -12200,10 +12204,10 @@
       <c r="A560" t="s">
         <v>568</v>
       </c>
-      <c r="B560">
-        <v>1</v>
-      </c>
-      <c r="C560">
+      <c r="B560" s="2">
+        <v>1</v>
+      </c>
+      <c r="C560" s="2">
         <v>1</v>
       </c>
       <c r="D560" t="s">
@@ -12217,10 +12221,10 @@
       <c r="A561" t="s">
         <v>569</v>
       </c>
-      <c r="B561">
-        <v>1</v>
-      </c>
-      <c r="C561">
+      <c r="B561" s="2">
+        <v>1</v>
+      </c>
+      <c r="C561" s="2">
         <v>1</v>
       </c>
       <c r="D561" t="s">
@@ -12234,10 +12238,10 @@
       <c r="A562" t="s">
         <v>570</v>
       </c>
-      <c r="B562">
-        <v>1</v>
-      </c>
-      <c r="C562">
+      <c r="B562" s="2">
+        <v>1</v>
+      </c>
+      <c r="C562" s="2">
         <v>1</v>
       </c>
       <c r="D562" t="s">
@@ -12251,10 +12255,10 @@
       <c r="A563" t="s">
         <v>571</v>
       </c>
-      <c r="B563">
-        <v>1</v>
-      </c>
-      <c r="C563">
+      <c r="B563" s="2">
+        <v>1</v>
+      </c>
+      <c r="C563" s="2">
         <v>1</v>
       </c>
       <c r="D563" t="s">
@@ -12268,10 +12272,10 @@
       <c r="A564" t="s">
         <v>572</v>
       </c>
-      <c r="B564">
-        <v>1</v>
-      </c>
-      <c r="C564">
+      <c r="B564" s="2">
+        <v>1</v>
+      </c>
+      <c r="C564" s="2">
         <v>1</v>
       </c>
       <c r="D564" t="s">
@@ -12285,10 +12289,10 @@
       <c r="A565" t="s">
         <v>573</v>
       </c>
-      <c r="B565">
-        <v>1</v>
-      </c>
-      <c r="C565">
+      <c r="B565" s="2">
+        <v>1</v>
+      </c>
+      <c r="C565" s="2">
         <v>1</v>
       </c>
       <c r="D565" t="s">
@@ -12302,10 +12306,10 @@
       <c r="A566" t="s">
         <v>574</v>
       </c>
-      <c r="B566">
-        <v>1</v>
-      </c>
-      <c r="C566">
+      <c r="B566" s="2">
+        <v>1</v>
+      </c>
+      <c r="C566" s="2">
         <v>1</v>
       </c>
       <c r="D566" t="s">
@@ -12319,10 +12323,10 @@
       <c r="A567" t="s">
         <v>575</v>
       </c>
-      <c r="B567">
-        <v>1</v>
-      </c>
-      <c r="C567">
+      <c r="B567" s="2">
+        <v>1</v>
+      </c>
+      <c r="C567" s="2">
         <v>1</v>
       </c>
       <c r="D567" t="s">
@@ -12336,10 +12340,10 @@
       <c r="A568" t="s">
         <v>576</v>
       </c>
-      <c r="B568">
-        <v>1</v>
-      </c>
-      <c r="C568">
+      <c r="B568" s="2">
+        <v>1</v>
+      </c>
+      <c r="C568" s="2">
         <v>1</v>
       </c>
       <c r="D568" t="s">
@@ -12353,10 +12357,10 @@
       <c r="A569" t="s">
         <v>577</v>
       </c>
-      <c r="B569">
-        <v>1</v>
-      </c>
-      <c r="C569">
+      <c r="B569" s="2">
+        <v>1</v>
+      </c>
+      <c r="C569" s="2">
         <v>1</v>
       </c>
       <c r="D569" t="s">
@@ -12370,10 +12374,10 @@
       <c r="A570" t="s">
         <v>578</v>
       </c>
-      <c r="B570">
-        <v>1</v>
-      </c>
-      <c r="C570">
+      <c r="B570" s="2">
+        <v>1</v>
+      </c>
+      <c r="C570" s="2">
         <v>1</v>
       </c>
       <c r="D570" t="s">
@@ -12387,10 +12391,10 @@
       <c r="A571" t="s">
         <v>579</v>
       </c>
-      <c r="B571">
-        <v>1</v>
-      </c>
-      <c r="C571">
+      <c r="B571" s="2">
+        <v>1</v>
+      </c>
+      <c r="C571" s="2">
         <v>1</v>
       </c>
       <c r="D571" t="s">
@@ -12404,10 +12408,10 @@
       <c r="A572" t="s">
         <v>580</v>
       </c>
-      <c r="B572">
-        <v>1</v>
-      </c>
-      <c r="C572">
+      <c r="B572" s="2">
+        <v>1</v>
+      </c>
+      <c r="C572" s="2">
         <v>1</v>
       </c>
       <c r="D572" t="s">
@@ -12421,10 +12425,10 @@
       <c r="A573" t="s">
         <v>581</v>
       </c>
-      <c r="B573">
-        <v>1</v>
-      </c>
-      <c r="C573">
+      <c r="B573" s="2">
+        <v>1</v>
+      </c>
+      <c r="C573" s="2">
         <v>1</v>
       </c>
       <c r="D573" t="s">
@@ -12438,10 +12442,10 @@
       <c r="A574" t="s">
         <v>582</v>
       </c>
-      <c r="B574">
-        <v>1</v>
-      </c>
-      <c r="C574">
+      <c r="B574" s="2">
+        <v>1</v>
+      </c>
+      <c r="C574" s="2">
         <v>1</v>
       </c>
       <c r="D574" t="s">
@@ -12455,10 +12459,10 @@
       <c r="A575" t="s">
         <v>583</v>
       </c>
-      <c r="B575">
-        <v>1</v>
-      </c>
-      <c r="C575">
+      <c r="B575" s="2">
+        <v>1</v>
+      </c>
+      <c r="C575" s="2">
         <v>1</v>
       </c>
       <c r="D575" t="s">
@@ -12472,10 +12476,10 @@
       <c r="A576" t="s">
         <v>584</v>
       </c>
-      <c r="B576">
-        <v>1</v>
-      </c>
-      <c r="C576">
+      <c r="B576" s="2">
+        <v>1</v>
+      </c>
+      <c r="C576" s="2">
         <v>1</v>
       </c>
       <c r="D576" t="s">
@@ -12489,10 +12493,10 @@
       <c r="A577" t="s">
         <v>585</v>
       </c>
-      <c r="B577">
-        <v>1</v>
-      </c>
-      <c r="C577">
+      <c r="B577" s="2">
+        <v>1</v>
+      </c>
+      <c r="C577" s="2">
         <v>1</v>
       </c>
       <c r="D577" t="s">
@@ -12506,10 +12510,10 @@
       <c r="A578" t="s">
         <v>586</v>
       </c>
-      <c r="B578">
-        <v>1</v>
-      </c>
-      <c r="C578">
+      <c r="B578" s="2">
+        <v>1</v>
+      </c>
+      <c r="C578" s="2">
         <v>1</v>
       </c>
       <c r="D578" t="s">
@@ -12523,10 +12527,10 @@
       <c r="A579" t="s">
         <v>587</v>
       </c>
-      <c r="B579">
-        <v>1</v>
-      </c>
-      <c r="C579">
+      <c r="B579" s="2">
+        <v>1</v>
+      </c>
+      <c r="C579" s="2">
         <v>1</v>
       </c>
       <c r="D579" t="s">
@@ -12540,10 +12544,10 @@
       <c r="A580" t="s">
         <v>588</v>
       </c>
-      <c r="B580">
-        <v>1</v>
-      </c>
-      <c r="C580">
+      <c r="B580" s="2">
+        <v>1</v>
+      </c>
+      <c r="C580" s="2">
         <v>1</v>
       </c>
       <c r="D580" t="s">
@@ -12557,10 +12561,10 @@
       <c r="A581" t="s">
         <v>589</v>
       </c>
-      <c r="B581">
-        <v>1</v>
-      </c>
-      <c r="C581">
+      <c r="B581" s="2">
+        <v>1</v>
+      </c>
+      <c r="C581" s="2">
         <v>1</v>
       </c>
       <c r="D581" t="s">
@@ -12574,10 +12578,10 @@
       <c r="A582" t="s">
         <v>590</v>
       </c>
-      <c r="B582">
-        <v>1</v>
-      </c>
-      <c r="C582">
+      <c r="B582" s="2">
+        <v>1</v>
+      </c>
+      <c r="C582" s="2">
         <v>1</v>
       </c>
       <c r="D582" t="s">
@@ -12591,10 +12595,10 @@
       <c r="A583" t="s">
         <v>591</v>
       </c>
-      <c r="B583">
-        <v>1</v>
-      </c>
-      <c r="C583">
+      <c r="B583" s="2">
+        <v>1</v>
+      </c>
+      <c r="C583" s="2">
         <v>1</v>
       </c>
       <c r="D583" t="s">
@@ -12608,10 +12612,10 @@
       <c r="A584" t="s">
         <v>592</v>
       </c>
-      <c r="B584">
-        <v>1</v>
-      </c>
-      <c r="C584">
+      <c r="B584" s="2">
+        <v>1</v>
+      </c>
+      <c r="C584" s="2">
         <v>1</v>
       </c>
       <c r="D584" t="s">
@@ -12625,10 +12629,10 @@
       <c r="A585" t="s">
         <v>593</v>
       </c>
-      <c r="B585">
-        <v>1</v>
-      </c>
-      <c r="C585">
+      <c r="B585" s="2">
+        <v>1</v>
+      </c>
+      <c r="C585" s="2">
         <v>1</v>
       </c>
       <c r="D585" t="s">
@@ -12642,10 +12646,10 @@
       <c r="A586" t="s">
         <v>594</v>
       </c>
-      <c r="B586">
-        <v>1</v>
-      </c>
-      <c r="C586">
+      <c r="B586" s="2">
+        <v>1</v>
+      </c>
+      <c r="C586" s="2">
         <v>1</v>
       </c>
       <c r="D586" t="s">
@@ -12659,10 +12663,10 @@
       <c r="A587" t="s">
         <v>595</v>
       </c>
-      <c r="B587">
-        <v>1</v>
-      </c>
-      <c r="C587">
+      <c r="B587" s="2">
+        <v>1</v>
+      </c>
+      <c r="C587" s="2">
         <v>1</v>
       </c>
       <c r="D587" t="s">
@@ -12676,10 +12680,10 @@
       <c r="A588" t="s">
         <v>596</v>
       </c>
-      <c r="B588">
-        <v>1</v>
-      </c>
-      <c r="C588">
+      <c r="B588" s="2">
+        <v>1</v>
+      </c>
+      <c r="C588" s="2">
         <v>1</v>
       </c>
       <c r="D588" t="s">
@@ -12693,10 +12697,10 @@
       <c r="A589" t="s">
         <v>597</v>
       </c>
-      <c r="B589">
-        <v>1</v>
-      </c>
-      <c r="C589">
+      <c r="B589" s="2">
+        <v>1</v>
+      </c>
+      <c r="C589" s="2">
         <v>1</v>
       </c>
       <c r="D589" t="s">
@@ -12710,10 +12714,10 @@
       <c r="A590" t="s">
         <v>598</v>
       </c>
-      <c r="B590">
-        <v>1</v>
-      </c>
-      <c r="C590">
+      <c r="B590" s="2">
+        <v>1</v>
+      </c>
+      <c r="C590" s="2">
         <v>1</v>
       </c>
       <c r="D590" t="s">
@@ -12727,10 +12731,10 @@
       <c r="A591" t="s">
         <v>599</v>
       </c>
-      <c r="B591">
-        <v>1</v>
-      </c>
-      <c r="C591">
+      <c r="B591" s="2">
+        <v>1</v>
+      </c>
+      <c r="C591" s="2">
         <v>1</v>
       </c>
       <c r="D591" t="s">
@@ -12744,10 +12748,10 @@
       <c r="A592" t="s">
         <v>600</v>
       </c>
-      <c r="B592">
-        <v>1</v>
-      </c>
-      <c r="C592">
+      <c r="B592" s="2">
+        <v>1</v>
+      </c>
+      <c r="C592" s="2">
         <v>1</v>
       </c>
       <c r="D592" t="s">
@@ -12761,10 +12765,10 @@
       <c r="A593" t="s">
         <v>601</v>
       </c>
-      <c r="B593">
-        <v>1</v>
-      </c>
-      <c r="C593">
+      <c r="B593" s="2">
+        <v>1</v>
+      </c>
+      <c r="C593" s="2">
         <v>1</v>
       </c>
       <c r="D593" t="s">
@@ -12778,10 +12782,10 @@
       <c r="A594" t="s">
         <v>602</v>
       </c>
-      <c r="B594">
-        <v>1</v>
-      </c>
-      <c r="C594">
+      <c r="B594" s="2">
+        <v>1</v>
+      </c>
+      <c r="C594" s="2">
         <v>1</v>
       </c>
       <c r="D594" t="s">
@@ -12795,10 +12799,10 @@
       <c r="A595" t="s">
         <v>603</v>
       </c>
-      <c r="B595">
-        <v>1</v>
-      </c>
-      <c r="C595">
+      <c r="B595" s="2">
+        <v>1</v>
+      </c>
+      <c r="C595" s="2">
         <v>1</v>
       </c>
       <c r="D595" t="s">
@@ -12812,10 +12816,10 @@
       <c r="A596" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B596">
-        <v>1</v>
-      </c>
-      <c r="C596">
+      <c r="B596" s="2">
+        <v>1</v>
+      </c>
+      <c r="C596" s="2">
         <v>1</v>
       </c>
       <c r="D596" t="s">
@@ -12829,10 +12833,10 @@
       <c r="A597" t="s">
         <v>605</v>
       </c>
-      <c r="B597">
-        <v>1</v>
-      </c>
-      <c r="C597">
+      <c r="B597" s="2">
+        <v>1</v>
+      </c>
+      <c r="C597" s="2">
         <v>1</v>
       </c>
       <c r="D597" t="s">
@@ -12846,10 +12850,10 @@
       <c r="A598" t="s">
         <v>606</v>
       </c>
-      <c r="B598">
-        <v>1</v>
-      </c>
-      <c r="C598">
+      <c r="B598" s="2">
+        <v>1</v>
+      </c>
+      <c r="C598" s="2">
         <v>1</v>
       </c>
       <c r="D598" t="s">
@@ -12863,10 +12867,10 @@
       <c r="A599" t="s">
         <v>607</v>
       </c>
-      <c r="B599">
-        <v>1</v>
-      </c>
-      <c r="C599">
+      <c r="B599" s="2">
+        <v>1</v>
+      </c>
+      <c r="C599" s="2">
         <v>1</v>
       </c>
       <c r="D599" t="s">
@@ -12876,7 +12880,20 @@
         <v>0.92</v>
       </c>
     </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C600" s="2"/>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C601" s="2"/>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C602" s="2"/>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C603" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>